--- a/Empresas-Sócios_CNAE-9602501_Cidade-Maringa_test_1.xlsx
+++ b/Empresas-Sócios_CNAE-9602501_Cidade-Maringa_test_1.xlsx
@@ -604,12 +604,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>48.922.076/0001-09</t>
+          <t>12.300.492/0001-10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>48922076</t>
+          <t>12300492</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -629,12 +629,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MARQUES, RUUS &amp; CIA LTDA</t>
+          <t>INFINITY STUDIO HAIR CABELO &amp; TATOO LTDA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>INFINITY STUDIO HAIR</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -642,23 +642,15 @@
           <t>Sociedade Empresária Limitada</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>NAO</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
           <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>70000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -677,7 +669,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>19/12/2022</t>
+          <t>26/07/2010</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -686,7 +678,7 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -695,12 +687,12 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>BRASIL</t>
+          <t>NAO DECLARADOS</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>19/12/2022</t>
+          <t>26/07/2010</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -713,17 +705,17 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>SANTOS DUMONT</t>
+          <t>NEO ALVES MARTINS</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>2113</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>LOJA  05</t>
+          <t>SALA  B</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -733,7 +725,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>87013050</t>
+          <t>87013060</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -750,19 +742,19 @@
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>RUUS40@GMAIL.COM</t>
+          <t>INFINITYSTUDIOHAIR@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>31.889.052/0001-94</t>
+          <t>29.708.529/0001-46</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>31889052</t>
+          <t>29708529</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -772,7 +764,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -782,12 +774,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>BARBEARIA RETRO LTDA</t>
+          <t>LOBAO BARBEARIA LTDA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>BARBEARIA RETROFIT - UNIDADE 3</t>
+          <t>LOBAO BARBEARIA</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -811,11 +803,11 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>20000</v>
+        <v>110000</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>MICRO EMPRESA</t>
+          <t>EMPRESA DE PEQUENO PORTE</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -830,7 +822,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>29/10/2018</t>
+          <t>19/02/2018</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -839,7 +831,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -853,7 +845,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>29/10/2018</t>
+          <t>19/02/2018</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -866,12 +858,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>ARQUITETO NILDO RIBEIRO DA ROCHA</t>
+          <t>DOS PALMARES</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>4561</t>
+          <t>151</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -881,12 +873,12 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>JARDIM HIGIENOPOLIS</t>
+          <t>JARDIM LIBERDADE</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>87060390</t>
+          <t>87047035</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -899,48 +891,56 @@
           <t>MARINGA</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>98822357.0</t>
+        </is>
+      </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>LEANDROMACRI@LIVE.COM</t>
+          <t>DOUGLAS_SK2_@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>50.017.928/0001-57</t>
+          <t>29.937.394/0003-52</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>50017928</t>
+          <t>29937394</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>0003</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MATRIZ</t>
+          <t>FILIAL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>STUDIO BELAHAUS LTDA</t>
+          <t>V. MENARIM HUMAMOTO SALAO DE BELEZA LTDA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>STUDIO BELAHAUS LTDA</t>
+          <t>ESTUDIO DA TESOURA CATUAI MARINGA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NAO</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>20000</v>
+        <v>96000</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>21/03/2023</t>
+          <t>16/11/2021</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1001,12 +1001,12 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>BRASIL</t>
+          <t>NAO DECLARADOS</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>21/03/2023</t>
+          <t>16/11/2021</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -1014,32 +1014,32 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>RUA</t>
+          <t>AVENIDA</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>SANTOS DUMONT</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>3255</t>
+          <t>9161</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>TERREOTERREO</t>
+          <t>LOJA  204</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>ZONA 01</t>
+          <t>GLEBA PATRIMONIO MARINGA</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>87013050</t>
+          <t>87070000</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1056,19 +1056,19 @@
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>STUDIOBELAHAUS@GMAIL.COM</t>
+          <t>ESCRITORIOMERCOSUL@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>34.215.594/0001-70</t>
+          <t>32.348.958/0001-64</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>34215594</t>
+          <t>32348958</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1088,12 +1088,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>VIOTTO NAILS LTDA</t>
+          <t>MARILHA MIRANDA - O TERRITORIO DAS DIVAS LTDA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>VIOTTO NAILS</t>
+          <t>MARILHA MIRANDA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>15/07/2019</t>
+          <t>03/01/2019</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>15/07/2019</t>
+          <t>03/01/2019</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -1167,32 +1167,32 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>RUA</t>
+          <t>AVENIDA</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>LUIS CARLOS PRESTES</t>
+          <t>JOSE ALVES NENDO</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>208</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>SALA  02                  CONJ  SAO SILVESTRE</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>JARDIM SAO SILVESTRE</t>
+          <t>GLEBA RIBEIRAO PINGUIM</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>87055430</t>
+          <t>87045260</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1209,19 +1209,19 @@
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>STEFANIEVIOTTO60@GMAIL.COM</t>
+          <t>MARILHAMIRANDAPAZ@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13.288.803/0001-35</t>
+          <t>30.468.613/0001-19</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13288803</t>
+          <t>30468613</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1241,12 +1241,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SALAO ORIENTE LTDA.</t>
+          <t>PS SERVICOS DE BELEZA LTDA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>SALAO ORIENTE</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>17/02/2011</t>
+          <t>16/05/2018</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>17/02/2011</t>
+          <t>16/05/2018</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1325,12 +1325,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>MARECHAL FLORIANO PEIXOTO</t>
+          <t>PIONEIRO ANTONIO PIETRO BON</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1065</t>
+          <t>1185</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1340,12 +1340,12 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>ZONA 07</t>
+          <t>JARDIM DIAS II</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>87030030</t>
+          <t>87025834</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1358,31 +1358,23 @@
           <t>MARINGA</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>98073423</t>
-        </is>
-      </c>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>NILTAKHOS@GMAIL.COM</t>
+          <t>ajp_dante@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>47.585.067/0001-07</t>
+          <t>29.353.438/0001-35</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>47585067</t>
+          <t>29353438</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1392,7 +1384,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1402,12 +1394,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>BONILHA &amp; SEGES LTDA</t>
+          <t>P. C. F. MANICURE LTDA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>BARBEARIA RIVELINO FUTEBOL CLUBE</t>
+          <t>SI TECNOLOGIA DA INFORMACAO</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1431,11 +1423,11 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>EMPRESA DE PEQUENO PORTE</t>
+          <t>MICRO EMPRESA</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1450,7 +1442,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>16/08/2022</t>
+          <t>03/01/2018</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1459,7 +1451,7 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1468,12 +1460,12 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>BRASIL</t>
+          <t>NAO DECLARADOS</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>16/08/2022</t>
+          <t>03/01/2018</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1481,32 +1473,32 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>AVENIDA</t>
+          <t>RUA</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>ADVOGADO HORÁCIO RACCANELLO FILHO</t>
+          <t>CATUABA</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>5545</t>
+          <t>217</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>LOJA  03</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>ZONA 07</t>
+          <t>JARDIM VITORIA</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>87020035</t>
+          <t>87023730</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1523,19 +1515,19 @@
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>WWW.SEGES@GMAIL.COM</t>
+          <t>IVANCARLOS.DOMINGUES@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30.809.468/0001-92</t>
+          <t>50.981.680/0001-40</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>30809468</t>
+          <t>50981680</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1545,7 +1537,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1555,12 +1547,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>STUDIO SS MAKE UP HAIR LTDA</t>
+          <t>DRA NICOLY THOME ESTETICA AVANCADA LTDA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>DRA NICOLY THOME ESTETICA AVANCADA</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1584,7 +1576,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1603,7 +1595,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>28/06/2018</t>
+          <t>07/06/2023</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1621,12 +1613,12 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>NAO DECLARADOS</t>
+          <t>BRASIL</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>28/06/2018</t>
+          <t>07/06/2023</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1639,12 +1631,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>SANTOS DUMONT</t>
+          <t>BERNARDINO DE CAMPOS</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1292</t>
+          <t>568</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1654,12 +1646,12 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>ZONA 03</t>
+          <t>ZONA  07</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>87050100</t>
+          <t>87030322</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -1676,19 +1668,19 @@
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>MARLIFRANCA@HOTMAIL.COM</t>
+          <t>CONTATOCONTABIL@PASTORELLI.CNT.BR</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>48.764.663/0001-09</t>
+          <t>31.537.425/0001-68</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>48764663</t>
+          <t>31537425</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1698,7 +1690,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>68</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1708,12 +1700,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>VILSON GUERRA ESPECO DA BELEZA LTDA</t>
+          <t>JOAO PEDRO CARREGOSA ANDRADE COSTA LTDA</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>JC VINTAGE CLUB</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1756,7 +1748,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>30/11/2022</t>
+          <t>18/09/2018</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1774,12 +1766,12 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>BRASIL</t>
+          <t>NAO DECLARADOS</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>30/11/2022</t>
+          <t>18/09/2018</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1787,17 +1779,17 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>AVENIDA</t>
+          <t>RUA</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>JOÃO PAULINO VIEIRA FILHO</t>
+          <t>TABAETE</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1807,12 +1799,12 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>ZONA 01</t>
+          <t>JARDIM TABAETE</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>87020015</t>
+          <t>87005140</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -1829,19 +1821,19 @@
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>SOLA@ECOBRASCONTABILIDADE.COM.BR</t>
+          <t>jp_jpandrade@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>28.182.216/0001-34</t>
+          <t>45.945.267/0001-90</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>28182216</t>
+          <t>45945267</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1851,7 +1843,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>90</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1861,12 +1853,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>BARBEARIA RETROFIT LTDA.</t>
+          <t>PANTERA LASHES SALAO DE BELEZA E ESTETICA LTDA</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>BARBEARIA RETROFIT</t>
+          <t>PANTERA BEAUTY</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1909,7 +1901,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>14/07/2017</t>
+          <t>07/04/2022</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1918,7 +1910,7 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1927,12 +1919,12 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>NAO DECLARADOS</t>
+          <t>BRASIL</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>14/07/2017</t>
+          <t>07/04/2022</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1945,12 +1937,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>MANDACARU</t>
+          <t>SÃO DOMINGOS</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2299</t>
+          <t>1155</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1960,12 +1952,12 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>PARQUE DAS LARANJEIRAS</t>
+          <t>VILA MORANGUEIRA</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>87083240</t>
+          <t>87040000</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -1982,19 +1974,19 @@
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>DIEGO.DLGRUPO@GMAIL.COM</t>
+          <t>ESTILO@ESTILOCONSULTORIA.COM.BR</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30.468.613/0001-19</t>
+          <t>12.766.678/0001-69</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>30468613</t>
+          <t>12766678</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2004,7 +1996,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>69</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2014,12 +2006,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>PS SERVICOS DE BELEZA LTDA</t>
+          <t>ISABEL ROSA &amp; CIA LTDA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>STILO CACHOS</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2043,7 +2035,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -2062,7 +2054,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>16/05/2018</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2071,7 +2063,7 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -2085,7 +2077,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>16/05/2018</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -2098,12 +2090,12 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>PIONEIRO ANTONIO PIETRO BON</t>
+          <t>NEO ALVES MARTINS</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1185</t>
+          <t>2275</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2113,12 +2105,12 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>JARDIM DIAS II</t>
+          <t>ZONA 01</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>87025834</t>
+          <t>87013060</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -2135,19 +2127,19 @@
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>ajp_dante@outlook.com</t>
+          <t>Nao informado</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>24.453.629/0001-55</t>
+          <t>16.653.244/0001-03</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>24453629</t>
+          <t>16653244</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2157,7 +2149,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>03</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2167,12 +2159,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ESCOLA DE CABELEIREIRO E BARBEARIA CIDADE CANCAO LTDA</t>
+          <t>STATUS ESTHETIC HAIR LTDA</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>STATUS BEAUTY SALON</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2196,11 +2188,11 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>MICRO EMPRESA</t>
+          <t>DEMAIS</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -2215,7 +2207,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>24/03/2016</t>
+          <t>02/08/2012</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2238,7 +2230,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>24/03/2016</t>
+          <t>02/08/2012</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -2251,27 +2243,27 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>BRASIL</t>
+          <t>DOUTOR LUIZ TEIXEIRA MENDES</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>3593</t>
+          <t>1616</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>SALA  01-02-03</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>ZONA 01</t>
+          <t>ZONA 05</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>87013000</t>
+          <t>87015001</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -2288,19 +2280,19 @@
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>ESCRITORIOAMARAES@UOL.COM.BR</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>43.735.529/0001-66</t>
+          <t>30.554.913/0001-10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>43735529</t>
+          <t>30554913</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2310,7 +2302,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2320,12 +2312,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>V &amp; J GUILHEN LTDA</t>
+          <t>ERICA ROSA HAIR LTDA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>RUBIO THURE BELEZA ESTETICA</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2349,7 +2341,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -2368,7 +2360,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>25/05/2018</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2377,7 +2369,7 @@
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -2391,7 +2383,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>25/05/2018</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -2399,32 +2391,32 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>AVENIDA</t>
+          <t>RUA</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>RIO BRANCO</t>
+          <t>ENRICO BRUNO PARDINI ZAMPONI</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>282</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>SALA  04</t>
+          <t>SLJ   SOBRELOJA</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>ZONA 04</t>
+          <t>GALEAO</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>87014140</t>
+          <t>87053288</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -2441,19 +2433,19 @@
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>JULIANO.SGUILHEN@HOTMAIL.COM</t>
+          <t>ERICAPROSA10@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>39.701.043/0001-30</t>
+          <t>24.680.078/0001-62</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>39701043</t>
+          <t>24680078</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2463,7 +2455,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>62</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2473,12 +2465,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>HAIR SALAO DE BELEZA LTDA</t>
+          <t>DEPILACAO DEPIL BELLA LTDA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>HAIR SALAO DE BELEZA</t>
+          <t>MADAME LOLA</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2488,7 +2480,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NAO</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2521,7 +2513,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>06/11/2020</t>
+          <t>28/04/2016</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2530,7 +2522,7 @@
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -2544,7 +2536,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>06/11/2020</t>
+          <t>28/04/2016</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -2557,27 +2549,27 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>BRASIL</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>4215</t>
+          <t>3004</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>SALA  08</t>
+          <t>SALA  02</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>ZONA 01</t>
+          <t>ZONA 07</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>87013000</t>
+          <t>87030120</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -2594,19 +2586,19 @@
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>ARYANE91@HOTMAIL.COM</t>
+          <t>ANTONIO.BRUNO@TERRA.COM.BR</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10.465.544/0001-82</t>
+          <t>43.868.178/0001-61</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10465544</t>
+          <t>43868178</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2616,7 +2608,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>61</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2626,12 +2618,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ERR STUDIO HAIR LTDA</t>
+          <t>SAINT PATRICKS BARBEARIA CLUBE LTDA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>LUXURIOUS BEAUTY HAIR</t>
+          <t>SAINT PATRICKS BARBER CLUB</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2655,7 +2647,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -2674,7 +2666,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>14/10/2021</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -2697,7 +2689,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>14/10/2021</t>
         </is>
       </c>
       <c r="V15" t="n">
@@ -2715,12 +2707,12 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>3054</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>TERREO</t>
+          <t>SALA  03 E 04</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2730,7 +2722,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>87013050</t>
+          <t>87015150</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -2747,19 +2739,19 @@
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>STPATRICKSBARBERCLUB@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>24.699.192/0001-34</t>
+          <t>20.109.887/0001-68</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>24699192</t>
+          <t>20109887</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2769,7 +2761,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>68</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2779,12 +2771,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>STUDIO BELEZA VIP LTDA</t>
+          <t>PLB HAIR LTDA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>STUDIO BELEZA VIP</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2808,7 +2800,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>80000</v>
+        <v>150000</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -2827,7 +2819,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>02/05/2016</t>
+          <t>11/04/2014</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -2836,7 +2828,7 @@
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -2850,7 +2842,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>02/05/2016</t>
+          <t>11/04/2014</t>
         </is>
       </c>
       <c r="V16" t="n">
@@ -2858,32 +2850,32 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>RUA</t>
+          <t>AVENIDA</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>DOUTOR SAULO PORTO VIRMOND</t>
+          <t>NOBREGA</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>1031</t>
+          <t>1.024</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>SALA 01</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>CHACARA PAULISTA</t>
+          <t>ZONA 04</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>87005090</t>
+          <t>87014180</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -2900,19 +2892,19 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>nathane.de.sa@gmail.com</t>
+          <t>Nao informado</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>26.835.569/0001-60</t>
+          <t>30.709.796/0001-17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>26835569</t>
+          <t>30709796</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2922,7 +2914,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2932,12 +2924,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MATTOS CABELEIREIROS LTDA</t>
+          <t>W. P. DA SILVA BARBEARIA LTDA</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>WILL BARBEARIA</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2961,7 +2953,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>30000</v>
+        <v>98000</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -2980,7 +2972,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>10/01/2017</t>
+          <t>15/06/2018</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -2989,7 +2981,7 @@
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -3003,7 +2995,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>10/01/2017</t>
+          <t>15/06/2018</t>
         </is>
       </c>
       <c r="V17" t="n">
@@ -3016,27 +3008,27 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>TAMANDARE</t>
+          <t>BRASIL</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>4886</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>SALA  15 - 17 E 19        COND  VIA ESTACAO</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>ZONA 01</t>
+          <t>ZONA 04</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>87013210</t>
+          <t>87014070</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -3053,19 +3045,19 @@
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>FABIO_SCOPEL@HOTMAIL.COM</t>
+          <t>WILLIANBARBERSHOP@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>27.281.947/0001-74</t>
+          <t>47.585.067/0001-07</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>27281947</t>
+          <t>47585067</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3075,7 +3067,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>07</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3085,12 +3077,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FOOT CARE MARINGA BELEZA E PODOLOGIA LTDA</t>
+          <t>BONILHA &amp; SEGES LTDA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>FOOT CARE MARINGA</t>
+          <t>BARBEARIA RIVELINO FUTEBOL CLUBE</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3114,11 +3106,11 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>MICRO EMPRESA</t>
+          <t>EMPRESA DE PEQUENO PORTE</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -3133,7 +3125,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>13/03/2017</t>
+          <t>16/08/2022</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -3151,12 +3143,12 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>NAO DECLARADOS</t>
+          <t>BRASIL</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>13/03/2017</t>
+          <t>16/08/2022</t>
         </is>
       </c>
       <c r="V18" t="n">
@@ -3169,27 +3161,27 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>HUMAITA</t>
+          <t>ADVOGADO HORÁCIO RACCANELLO FILHO</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>5545</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>SALA  5</t>
+          <t>LOJA  03</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>ZONA 04</t>
+          <t>ZONA 07</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>87014200</t>
+          <t>87020035</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -3206,19 +3198,19 @@
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>WWW.SEGES@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>41.590.393/0001-18</t>
+          <t>30.809.468/0001-92</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>41590393</t>
+          <t>30809468</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3228,7 +3220,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>92</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3238,12 +3230,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MEILLY ESMALTERIA E BELEZA LTDA</t>
+          <t>STUDIO SS MAKE UP HAIR LTDA</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>TURQUESA ESMALTERIA E BELEZA MARINGA</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3267,7 +3259,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>120000</v>
+        <v>10000</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -3286,7 +3278,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>15/04/2021</t>
+          <t>28/06/2018</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -3309,7 +3301,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>15/04/2021</t>
+          <t>28/06/2018</t>
         </is>
       </c>
       <c r="V19" t="n">
@@ -3317,32 +3309,32 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>AVENIDA</t>
+          <t>RUA</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>ITORORO</t>
+          <t>SANTOS DUMONT</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>1435</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>LOJA  02</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>ZONA 02</t>
+          <t>ZONA 03</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>87010460</t>
+          <t>87050100</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -3359,19 +3351,19 @@
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>MONICASUZUKIEE@GMAIL.COM</t>
+          <t>MARLIFRANCA@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>35.393.898/0001-90</t>
+          <t>44.023.400/0001-98</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>35393898</t>
+          <t>44023400</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3381,7 +3373,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>98</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -3391,12 +3383,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>FGITW BARBEARIA LTDA</t>
+          <t>BRASILINO E BRASILINO SALAO DE BELEZA LTDA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>SIR MUSTACHE BARBEARIA PUB</t>
+          <t>STUDIO EFFE</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3420,7 +3412,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -3439,7 +3431,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>04/11/2019</t>
+          <t>26/10/2021</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -3448,7 +3440,7 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -3462,7 +3454,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>04/11/2019</t>
+          <t>26/10/2021</t>
         </is>
       </c>
       <c r="V20" t="n">
@@ -3475,27 +3467,27 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>HUMAITA</t>
+          <t>ADVOGADO HORACIO RACCANELLO FILHO</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>5620</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>SALA  01 E 02</t>
+          <t>LOJA  01</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>ZONA 04</t>
+          <t>ZONA 07</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>87014200</t>
+          <t>87020035</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -3512,19 +3504,19 @@
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>ORGANIZACAO.MARCELO@HOTMAIL.COM</t>
+          <t>FABSOUZA17@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>38.143.484/0001-09</t>
+          <t>42.700.263/0001-53</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>38143484</t>
+          <t>42700263</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3534,7 +3526,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -3544,12 +3536,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SENHORA BARBA LAHUTT LTDA</t>
+          <t>LUNNA ESMALTERIA E ESTETICA LTDA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>BARBEARIA SRA BARBA</t>
+          <t>LUNNA</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3573,7 +3565,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -3592,7 +3584,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>19/08/2020</t>
+          <t>13/07/2021</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -3615,7 +3607,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>19/08/2020</t>
+          <t>13/07/2021</t>
         </is>
       </c>
       <c r="V21" t="n">
@@ -3628,27 +3620,27 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>CERRO AZUL</t>
+          <t>LAGUNA</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>864</t>
+          <t>20</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>LOJA  04</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>ZONA 02</t>
+          <t>ZONA 01</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>87010000</t>
+          <t>87050251</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -3661,23 +3653,31 @@
           <t>MARINGA</t>
         </is>
       </c>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>30152302.0</t>
+        </is>
+      </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>SSENHORA.BARBA@GMAIL.COM</t>
+          <t>ESCMARIALVA@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>11.532.289/0001-06</t>
+          <t>46.513.010/0001-21</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>11532289</t>
+          <t>46513010</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CAMARIM CABELEIREIROS LTDA</t>
+          <t>JM ESPACO DE BELEZA LTDA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CAMARIM CABELEIREIROS</t>
+          <t>JM ESPACO DE BELEZA</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3712,21 +3712,21 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>NAO</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>NAO</t>
-        </is>
-      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>04/02/2010</t>
+          <t>24/05/2022</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -3763,12 +3763,12 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>NAO DECLARADOS</t>
+          <t>BRASIL</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>04/02/2010</t>
+          <t>24/05/2022</t>
         </is>
       </c>
       <c r="V22" t="n">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>CERRO AZUL</t>
+          <t>PEDRO TAQUES</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>1047</t>
+          <t>2507</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3796,12 +3796,12 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>ZONA 02</t>
+          <t>JARDIM ALVORADA</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>87010000</t>
+          <t>87033000</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
@@ -3818,19 +3818,19 @@
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>RAFAELCONTABILIDADE4@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>13.428.716/0001-36</t>
+          <t>32.551.718/0001-62</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>13428716</t>
+          <t>32551718</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>62</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3850,12 +3850,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>L R P FREITAS &amp; CIA LTDA</t>
+          <t>BALANI, HIGUCHI E SILVA LTDA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>FRIDA SALON</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>28/11/2022</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>24/01/2019</t>
         </is>
       </c>
       <c r="V23" t="n">
@@ -3929,22 +3929,22 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>AVENIDA</t>
+          <t>RUA</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>XV DE NOVEMBRO</t>
+          <t>NEO ALVES MARTINS</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>2113</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>SALA  B</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>87013230</t>
+          <t>87013060</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -3971,19 +3971,19 @@
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>ANACLAUDIABALLANI@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>42.700.263/0001-53</t>
+          <t>24.398.383/0001-66</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>42700263</t>
+          <t>24398383</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>66</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4003,12 +4003,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>LUNNA ESMALTERIA E ESTETICA LTDA</t>
+          <t>GSM BARBEARIA LTDA</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>LUNNA</t>
+          <t>BARBEARIA MAGALHAES</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>13/07/2021</t>
+          <t>16/03/2016</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>13/07/2021</t>
+          <t>16/03/2016</t>
         </is>
       </c>
       <c r="V24" t="n">
@@ -4087,27 +4087,27 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>LAGUNA</t>
+          <t>MAUA</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>LOJA  04</t>
+          <t>LOJA 01</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>ZONA 01</t>
+          <t>ZONA 03</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>87050251</t>
+          <t>87050020</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -4120,31 +4120,23 @@
           <t>MARINGA</t>
         </is>
       </c>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>30152302.0</t>
-        </is>
-      </c>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>ESCMARIALVA@HOTMAIL.COM</t>
+          <t>GLAUBER_MAGALHAES@OUTLOOK.COM</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>34.192.570/0001-42</t>
+          <t>34.215.594/0001-70</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>34192570</t>
+          <t>34215594</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4154,7 +4146,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -4164,12 +4156,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>PENTEADO E LIMA SALAO DE BELEZA LTDA</t>
+          <t>VIOTTO NAILS LTDA</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>VIOTTO NAILS</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -4193,7 +4185,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -4212,7 +4204,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>12/07/2019</t>
+          <t>15/07/2019</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -4235,7 +4227,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>12/07/2019</t>
+          <t>15/07/2019</t>
         </is>
       </c>
       <c r="V25" t="n">
@@ -4243,32 +4235,32 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>AVENIDA</t>
+          <t>RUA</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>BRASIL</t>
+          <t>LUIS CARLOS PRESTES</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>4215</t>
+          <t>54</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>SALA  07</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>ZONA 01</t>
+          <t>JARDIM SAO SILVESTRE</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>87013000</t>
+          <t>87055430</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
@@ -4285,19 +4277,19 @@
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>ALEXANDREDELIMA11@GMAIL.COM</t>
+          <t>STEFANIEVIOTTO60@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>31.611.871/0001-75</t>
+          <t>35.393.898/0001-90</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>31611871</t>
+          <t>35393898</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4307,7 +4299,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>90</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -4317,12 +4309,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>BARBEARIA SR. JOSE LTDA</t>
+          <t>FGITW BARBEARIA LTDA</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>BARBEARIA SR. JOSE</t>
+          <t>SIR MUSTACHE BARBEARIA PUB</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -4346,7 +4338,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -4365,7 +4357,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>26/09/2018</t>
+          <t>04/11/2019</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -4374,7 +4366,7 @@
         </is>
       </c>
       <c r="R26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -4388,7 +4380,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>26/09/2018</t>
+          <t>04/11/2019</t>
         </is>
       </c>
       <c r="V26" t="n">
@@ -4396,32 +4388,32 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>RUA</t>
+          <t>AVENIDA</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>RAIMUNDO CORREIA</t>
+          <t>HUMAITA</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>541</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>SALA  01 E 02</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>ZONA 06</t>
+          <t>ZONA 04</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>87015400</t>
+          <t>87014200</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -4438,19 +4430,19 @@
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>CONTATOBRISCE@GMAIL.COM</t>
+          <t>ORGANIZACAO.MARCELO@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>26.882.648/0001-22</t>
+          <t>23.328.656/0001-33</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>26882648</t>
+          <t>23328656</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4460,7 +4452,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -4470,12 +4462,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>CASMURRO BARBEARIA LTDA</t>
+          <t>PAISCA ESPACO DA BELEZA LTDA</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>CASMURRO BARBEARIA</t>
+          <t>ESPACO PAISCA</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -4499,7 +4491,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -4518,7 +4510,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>17/01/2017</t>
+          <t>23/09/2015</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -4541,7 +4533,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>17/01/2017</t>
+          <t>23/09/2015</t>
         </is>
       </c>
       <c r="V27" t="n">
@@ -4554,27 +4546,27 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>XV DE NOVEMBRO</t>
+          <t>PAISSANDU</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>718</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>SALA  A</t>
+          <t>TERREO</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>ZONA 01</t>
+          <t>ZONA 03</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>87013230</t>
+          <t>87050130</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -4591,19 +4583,19 @@
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>RIELCONTABILIDADE@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>44.762.237/0001-85</t>
+          <t>43.157.853/0001-44</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>44762237</t>
+          <t>43157853</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4613,7 +4605,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -4623,12 +4615,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>JOYCE RODRIGUES BELEZA E ESTETICA LTDA</t>
+          <t>JOICE LOANA OLIANO DOS SANTOS CABELEREIRA LTDA</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>STUDIO MIRIAN OLIANO</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -4652,7 +4644,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -4671,7 +4663,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>06/01/2022</t>
+          <t>17/08/2021</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -4694,7 +4686,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>06/01/2022</t>
+          <t>17/08/2021</t>
         </is>
       </c>
       <c r="V28" t="n">
@@ -4707,27 +4699,27 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>HUMAITA</t>
+          <t>BRASIL</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>852</t>
+          <t>2655</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>LOJA  A3</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>ZONA 04</t>
+          <t>ZONA 03</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>87014200</t>
+          <t>87050000</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -4744,19 +4736,19 @@
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>EDUARDOPLENOCONSULTORIA@GMAIL.COM</t>
+          <t>ITAGESTAOCONTABIL@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>14.787.941/0001-21</t>
+          <t>11.222.870/0001-21</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>14787941</t>
+          <t>11222870</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4776,7 +4768,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>IMAGEM HUMANA BELEZA LTDA</t>
+          <t>ROSA &amp; BORBOREMA LTDA</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -4791,25 +4783,25 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
           <t>NAO</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>NAO</t>
-        </is>
-      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>336097.84</v>
+        <v>10000</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>DEMAIS</t>
+          <t>MICRO EMPRESA</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -4824,7 +4816,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>19/12/2011</t>
+          <t>01/10/2009</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -4847,7 +4839,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>19/12/2011</t>
+          <t>01/10/2009</t>
         </is>
       </c>
       <c r="V29" t="n">
@@ -4860,27 +4852,27 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>MANDACARU</t>
+          <t>SAO PAULO</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>1.260</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>LOJA  123, 124 E 125</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>VILA SANTA IZABEL</t>
+          <t>ZONA 01</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>87080000</t>
+          <t>87013040</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
@@ -4893,31 +4885,23 @@
           <t>MARINGA</t>
         </is>
       </c>
-      <c r="AE29" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="AF29" t="inlineStr">
-        <is>
-          <t>32268889</t>
-        </is>
-      </c>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>modelo@escrmodelo.com.br</t>
+          <t>Nao informado</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>10.567.239/0001-00</t>
+          <t>27.858.361/0001-20</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>10567239</t>
+          <t>27858361</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4927,7 +4911,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -4937,12 +4921,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>PAVAN STUDIO E ESTETICA LTDA</t>
+          <t>O JOAQUIM PENTEADOS LTDA</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>PAVAN STUDIO E ESTETICA</t>
+          <t>JOAQUIM FERREIRA</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -4966,7 +4950,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -4985,7 +4969,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>31/05/2017</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -4994,7 +4978,7 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -5008,7 +4992,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>31/05/2017</t>
         </is>
       </c>
       <c r="V30" t="n">
@@ -5021,12 +5005,12 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>DA LAPA</t>
+          <t>ANTONIO BRAMBILLA</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>506</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -5036,12 +5020,12 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>JARDIM MANDACARU</t>
+          <t>JARDIM PARIS</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>87080240</t>
+          <t>87083400</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
@@ -5054,31 +5038,23 @@
           <t>MARINGA</t>
         </is>
       </c>
-      <c r="AE30" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="AF30" t="inlineStr">
-        <is>
-          <t>32899656</t>
-        </is>
-      </c>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>MARIJPAVAN@HOTMAIL.COM</t>
+          <t>PENTEADOSJOAQUIMFERREIRA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>34.355.051/0001-58</t>
+          <t>43.735.529/0001-66</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>34355051</t>
+          <t>43735529</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5088,7 +5064,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>66</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -5098,12 +5074,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>PROFETA BARBER PUB LTDA</t>
+          <t>V &amp; J GUILHEN LTDA</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>PROFETA BARBER PUB</t>
+          <t>RUBIO THURE BELEZA ESTETICA</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -5127,7 +5103,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>90000</v>
+        <v>20000</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -5146,7 +5122,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>29/07/2019</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -5155,7 +5131,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -5169,7 +5145,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>29/07/2019</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="V31" t="n">
@@ -5182,27 +5158,27 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>HORACIO RACCANELLO FILHO,ADVOGADO</t>
+          <t>RIO BRANCO</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>6326</t>
+          <t>273</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>PAVMTO2                   SALA  06                  SETOR 50                  EDIF  TORRE GEMEA</t>
+          <t>SALA  04</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>ZONA 01</t>
+          <t>ZONA 04</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>87020035</t>
+          <t>87014140</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
@@ -5219,19 +5195,19 @@
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>PROFETA.GERENCIA@GMAIL.COM</t>
+          <t>JULIANO.SGUILHEN@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>45.442.512/0001-46</t>
+          <t>27.281.947/0001-74</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>45442512</t>
+          <t>27281947</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5241,7 +5217,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>74</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -5251,12 +5227,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>SANDRA SERVICOS DE BELEZA LTDA</t>
+          <t>FOOT CARE MARINGA BELEZA E PODOLOGIA LTDA</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>FOOT CARE MARINGA</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -5299,7 +5275,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>24/02/2022</t>
+          <t>13/03/2017</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -5317,12 +5293,12 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>BRASIL</t>
+          <t>NAO DECLARADOS</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>24/02/2022</t>
+          <t>13/03/2017</t>
         </is>
       </c>
       <c r="V32" t="n">
@@ -5330,32 +5306,32 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>RUA</t>
+          <t>AVENIDA</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>OSVALDO CRUZ</t>
+          <t>HUMAITA</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>495</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>APT   308</t>
+          <t>SALA  5</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>ZONA 07</t>
+          <t>ZONA 04</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>87020200</t>
+          <t>87014200</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
@@ -5372,19 +5348,19 @@
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>SANDRAUTINOI@GMAIL.COM</t>
+          <t>Nao informado</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>47.637.067/0001-03</t>
+          <t>47.618.875/0001-15</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>47637067</t>
+          <t>47618875</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5394,7 +5370,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -5404,7 +5380,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>GR GALLI LTDA</t>
+          <t>YFF MICROPIGMENTACAO LTDA</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -5417,15 +5393,23 @@
           <t>Sociedade Empresária Limitada</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>NAO</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -5444,7 +5428,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>19/08/2022</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -5467,7 +5451,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>19/08/2022</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="V33" t="n">
@@ -5480,12 +5464,12 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>PRUDENTE DE MORAIS</t>
+          <t>TIRADENTES</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>992</t>
+          <t>57</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -5495,12 +5479,12 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>ZONA 07</t>
+          <t>ZONA 02</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>87020010</t>
+          <t>87013340</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
@@ -5517,19 +5501,19 @@
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>RHAYDGALLI@GMAIL.COM</t>
+          <t>YASMINFERRACINI@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>48.002.170/0001-31</t>
+          <t>48.764.663/0001-09</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>48002170</t>
+          <t>48764663</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5539,7 +5523,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>09</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -5549,7 +5533,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>BARBEARIA FABIO CASTRO LTDA</t>
+          <t>VILSON GUERRA ESPECO DA BELEZA LTDA</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -5578,7 +5562,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -5597,7 +5581,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>19/09/2022</t>
+          <t>30/11/2022</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -5620,7 +5604,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>19/09/2022</t>
+          <t>30/11/2022</t>
         </is>
       </c>
       <c r="V34" t="n">
@@ -5628,32 +5612,32 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>RUA</t>
+          <t>AVENIDA</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>RUI BARBOSA</t>
+          <t>JOÃO PAULINO VIEIRA FILHO</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>190</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>SALA  B</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>ZONA 07</t>
+          <t>ZONA 01</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>87020090</t>
+          <t>87020015</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
@@ -5670,19 +5654,19 @@
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>FABIOHABAKUK@HOTMAIL.COM</t>
+          <t>SOLA@ECOBRASCONTABILIDADE.COM.BR</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>51.219.125/0001-48</t>
+          <t>45.442.512/0001-46</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>51219125</t>
+          <t>45442512</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5692,7 +5676,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -5702,7 +5686,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>B. E. E. MARINGA LTDA</t>
+          <t>SANDRA SERVICOS DE BELEZA LTDA</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -5731,7 +5715,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -5750,7 +5734,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>28/06/2023</t>
+          <t>24/02/2022</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -5759,7 +5743,7 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -5773,7 +5757,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>28/06/2023</t>
+          <t>24/02/2022</t>
         </is>
       </c>
       <c r="V35" t="n">
@@ -5781,32 +5765,32 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>AVENIDA</t>
+          <t>RUA</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>TIRADENTES</t>
+          <t>OSVALDO CRUZ</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>1180</t>
+          <t>452</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>APT   308</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>ZONA 01</t>
+          <t>ZONA 07</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>87013260</t>
+          <t>87020200</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
@@ -5823,19 +5807,19 @@
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>ESTETICAMARINGA.GERENCIA@GMAIL.COM</t>
+          <t>SANDRAUTINOI@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>29.708.529/0001-46</t>
+          <t>17.710.705/0001-03</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>29708529</t>
+          <t>17710705</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5845,7 +5829,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>03</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -5855,12 +5839,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>LOBAO BARBEARIA LTDA</t>
+          <t>JULIO CESAR MARTINS RODRIGUES ESTETICA LTDA</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>LOBAO BARBEARIA</t>
+          <t>DPILL LINE</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -5884,11 +5868,11 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>110000</v>
+        <v>5000</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>EMPRESA DE PEQUENO PORTE</t>
+          <t>MICRO EMPRESA</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -5903,7 +5887,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>19/02/2018</t>
+          <t>07/03/2013</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -5926,7 +5910,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>19/02/2018</t>
+          <t>07/03/2013</t>
         </is>
       </c>
       <c r="V36" t="n">
@@ -5939,27 +5923,27 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>DOS PALMARES</t>
+          <t>DONA SOPHIA RASGULAEFF</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>2554</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>SALA  01</t>
+          <t>SALA 02</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>JARDIM LIBERDADE</t>
+          <t>JARDIM OASIS</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>87047035</t>
+          <t>87043010</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
@@ -5972,31 +5956,23 @@
           <t>MARINGA</t>
         </is>
       </c>
-      <c r="AE36" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="AF36" t="inlineStr">
-        <is>
-          <t>98822357.0</t>
-        </is>
-      </c>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>DOUGLAS_SK2_@HOTMAIL.COM</t>
+          <t>juliocesar.200@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>11.075.159/0001-91</t>
+          <t>25.330.272/0001-80</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>11075159</t>
+          <t>25330272</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6006,7 +5982,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -6016,12 +5992,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MHS SALAO DE BELEZA LTDA</t>
+          <t>BARRETO S BARBEARIA CLUB LTDA</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>ELLEN HAIR</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -6045,11 +6021,11 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>EMPRESA DE PEQUENO PORTE</t>
+          <t>MICRO EMPRESA</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6064,7 +6040,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>04/08/2009</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -6073,7 +6049,7 @@
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -6087,7 +6063,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>04/08/2009</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="V37" t="n">
@@ -6100,12 +6076,12 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>ADV. HORACIO RACCANELLO FILHO</t>
+          <t>DAS PALMEIRAS</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>5515</t>
+          <t>789</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -6115,12 +6091,12 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>ZONA 01</t>
+          <t>PARQUE PALMEIRAS</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>87013100</t>
+          <t>87023160</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
@@ -6137,19 +6113,19 @@
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>WAGNERAPB@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>17.710.705/0001-03</t>
+          <t>31.889.052/0001-94</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>17710705</t>
+          <t>31889052</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -6159,7 +6135,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>94</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -6169,12 +6145,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>JULIO CESAR MARTINS RODRIGUES ESTETICA LTDA</t>
+          <t>BARBEARIA RETRO LTDA</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>DPILL LINE</t>
+          <t>BARBEARIA RETROFIT - UNIDADE 3</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -6198,7 +6174,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -6217,7 +6193,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>07/03/2013</t>
+          <t>29/10/2018</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -6226,7 +6202,7 @@
         </is>
       </c>
       <c r="R38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -6240,7 +6216,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>07/03/2013</t>
+          <t>29/10/2018</t>
         </is>
       </c>
       <c r="V38" t="n">
@@ -6253,27 +6229,27 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>DONA SOPHIA RASGULAEFF</t>
+          <t>ARQUITETO NILDO RIBEIRO DA ROCHA</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2554</t>
+          <t>4561</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>SALA 02</t>
+          <t>SALA  01</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>JARDIM OASIS</t>
+          <t>JARDIM HIGIENOPOLIS</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>87043010</t>
+          <t>87060390</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
@@ -6290,19 +6266,19 @@
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>juliocesar.200@hotmail.com</t>
+          <t>LEANDROMACRI@LIVE.COM</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>32.348.958/0001-64</t>
+          <t>47.637.067/0001-03</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>32348958</t>
+          <t>47637067</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -6312,7 +6288,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>03</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -6322,12 +6298,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>MARILHA MIRANDA - O TERRITORIO DAS DIVAS LTDA</t>
+          <t>GR GALLI LTDA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>MARILHA MIRANDA</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -6335,16 +6311,8 @@
           <t>Sociedade Empresária Limitada</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>NAO</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>Sócio-Administrador</t>
@@ -6370,7 +6338,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>03/01/2019</t>
+          <t>19/08/2022</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -6388,12 +6356,12 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>NAO DECLARADOS</t>
+          <t>BRASIL</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>03/01/2019</t>
+          <t>19/08/2022</t>
         </is>
       </c>
       <c r="V39" t="n">
@@ -6406,27 +6374,27 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>JOSE ALVES NENDO</t>
+          <t>PRUDENTE DE MORAIS</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>992</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>SALA  02                  CONJ  SAO SILVESTRE</t>
+          <t>SALA  02</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>GLEBA RIBEIRAO PINGUIM</t>
+          <t>ZONA 07</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>87045260</t>
+          <t>87020010</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
@@ -6443,19 +6411,19 @@
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>MARILHAMIRANDAPAZ@GMAIL.COM</t>
+          <t>RHAYDGALLI@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>32.946.528/0001-44</t>
+          <t>24.699.192/0001-34</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>32946528</t>
+          <t>24699192</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -6465,7 +6433,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -6475,12 +6443,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>LETICIA E LARISSA CABELEIREIRAS LTDA</t>
+          <t>STUDIO BELEZA VIP LTDA</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>LARILE CABELEIREIRAS</t>
+          <t>STUDIO BELEZA VIP</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -6504,7 +6472,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -6523,7 +6491,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>06/03/2019</t>
+          <t>02/05/2016</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -6532,7 +6500,7 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -6546,7 +6514,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>06/03/2019</t>
+          <t>02/05/2016</t>
         </is>
       </c>
       <c r="V40" t="n">
@@ -6559,27 +6527,27 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>SANTOS DUMONT</t>
+          <t>DOUTOR SAULO PORTO VIRMOND</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>3494</t>
+          <t>1031</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>SALA  A</t>
+          <t>SALA 01</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>ZONA 01</t>
+          <t>CHACARA PAULISTA</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>87013050</t>
+          <t>87005090</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
@@ -6596,19 +6564,19 @@
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>nathane.de.sa@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>19.427.911/0001-28</t>
+          <t>15.126.007/0001-21</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>19427911</t>
+          <t>15126007</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -6618,7 +6586,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -6628,12 +6596,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>JC VINTAGE LTDA</t>
+          <t>EF DE CASTRO - SALAO DE BELEZA LTDA</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>SALAO MODELLE ELEZIER FREITAS</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -6657,7 +6625,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>70000</v>
+        <v>20000</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -6676,7 +6644,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>04/11/2022</t>
+          <t>28/02/2012</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -6699,7 +6667,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>05/12/2013</t>
+          <t>28/02/2012</t>
         </is>
       </c>
       <c r="V41" t="n">
@@ -6712,27 +6680,27 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>MAUA</t>
+          <t>PEDRO TAQUES</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>3094</t>
+          <t>1013-A</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>ANEXO LOJA E - 09</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>ZONA 07</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>87013160</t>
+          <t>87030000</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
@@ -6749,19 +6717,19 @@
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>escritoriocontroller@gmail.com</t>
+          <t>Nao informado</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>34.814.573/0001-70</t>
+          <t>31.611.871/0001-75</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>34814573</t>
+          <t>31611871</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -6771,7 +6739,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>75</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -6781,12 +6749,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>GOLD NAIPE BARBEARIA LTDA</t>
+          <t>BARBEARIA SR. JOSE LTDA</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>GOLD NAIPE BARBEARIA</t>
+          <t>BARBEARIA SR. JOSE</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -6810,7 +6778,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>20000</v>
+        <v>180000</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -6829,7 +6797,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>10/09/2019</t>
+          <t>26/09/2018</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -6838,7 +6806,7 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -6852,7 +6820,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>10/09/2019</t>
+          <t>26/09/2018</t>
         </is>
       </c>
       <c r="V42" t="n">
@@ -6860,17 +6828,17 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>AVENIDA</t>
+          <t>RUA</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>DOUTOR MARIO CLAPIER URBINATI</t>
+          <t>RAIMUNDO CORREIA</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>276</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -6880,12 +6848,12 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>ZONA 7</t>
+          <t>ZONA 06</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>87020260</t>
+          <t>87015400</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
@@ -6902,19 +6870,19 @@
       <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>CONTATO@CONNUTE.COM.BR</t>
+          <t>CONTATOBRISCE@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>48.253.775/0001-03</t>
+          <t>29.615.441/0001-80</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>48253775</t>
+          <t>29615441</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -6924,7 +6892,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -6934,12 +6902,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>INSTITUTO DE BELEZA CLAUS ALVES LTDA</t>
+          <t>GUSTAVO LOPES BARBEARIA LTDA</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>GUSTAVO BARBEIRO</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -6963,7 +6931,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -6982,7 +6950,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>11/10/2022</t>
+          <t>05/02/2018</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -7000,12 +6968,12 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>BRASIL</t>
+          <t>NAO DECLARADOS</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>11/10/2022</t>
+          <t>05/02/2018</t>
         </is>
       </c>
       <c r="V43" t="n">
@@ -7013,32 +6981,32 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>RUA</t>
+          <t>AVENIDA</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>PARANAGUÁ</t>
+          <t>LAGUNA</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>1895</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>LOJA  02</t>
+          <t>SALA  05</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>ZONA 07</t>
+          <t>ZONA 03</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>87020190</t>
+          <t>87050260</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
@@ -7055,19 +7023,19 @@
       <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>ADM@CONTIMAR.COM.BR</t>
+          <t>GUSTAVOLOPES_2016@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>22.374.317/0001-20</t>
+          <t>40.817.253/0001-77</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>22374317</t>
+          <t>40817253</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -7077,7 +7045,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>77</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -7087,12 +7055,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ZIMMERMANN SALON LTDA</t>
+          <t>CZEZACKI CABELEIREIROS LTDA</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>MAYKO ZIMMERMANN</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -7116,7 +7084,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -7135,7 +7103,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>04/05/2015</t>
+          <t>11/02/2021</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -7158,7 +7126,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>04/05/2015</t>
+          <t>11/02/2021</t>
         </is>
       </c>
       <c r="V44" t="n">
@@ -7171,27 +7139,27 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>POMBAL</t>
+          <t>JAIR DO COUTO COSTA</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>957</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>SALA 02</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>ZONA 03</t>
+          <t>RECANTO DOS MAGNATAS</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>87050140</t>
+          <t>87060625</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
@@ -7208,19 +7176,19 @@
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>LETYCZK@OUTLOOK.COM</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>25.330.272/0001-80</t>
+          <t>33.734.968/0001-09</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>25330272</t>
+          <t>33734968</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -7230,7 +7198,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>09</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -7240,12 +7208,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>BARRETO S BARBEARIA CLUB LTDA</t>
+          <t>TERRAS CLUB BARBEARIA E ARTIGOS DO VESTUARIO LTDA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>TERRAS CLUB</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -7269,7 +7237,7 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -7288,7 +7256,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>27/05/2019</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -7311,7 +7279,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>27/05/2019</t>
         </is>
       </c>
       <c r="V45" t="n">
@@ -7324,12 +7292,12 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>DAS PALMEIRAS</t>
+          <t>SAO PAULO</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>2634</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -7339,12 +7307,12 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>PARQUE PALMEIRAS</t>
+          <t>VILA BOSQUE</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>87023160</t>
+          <t>87005040</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
@@ -7361,19 +7329,19 @@
       <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>WAGNERAPB@HOTMAIL.COM</t>
+          <t>MATHEUSTERRABARBER@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>45.945.267/0001-90</t>
+          <t>17.274.626/0001-99</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>45945267</t>
+          <t>17274626</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -7383,7 +7351,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>99</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -7393,12 +7361,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>PANTERA LASHES SALAO DE BELEZA E ESTETICA LTDA</t>
+          <t>E. LIRA INOVE LTDA.</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>PANTERA BEAUTY</t>
+          <t>ELIANE LIRA CABELEIREIROS</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -7422,7 +7390,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -7441,7 +7409,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>07/04/2022</t>
+          <t>04/12/2012</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -7450,7 +7418,7 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -7459,12 +7427,12 @@
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>BRASIL</t>
+          <t>NAO DECLARADOS</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>07/04/2022</t>
+          <t>04/12/2012</t>
         </is>
       </c>
       <c r="V46" t="n">
@@ -7472,32 +7440,32 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>AVENIDA</t>
+          <t>RUA</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>SÃO DOMINGOS</t>
+          <t>SAO JOAO</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>1155</t>
+          <t>457</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>SALA  1</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>VILA MORANGUEIRA</t>
+          <t>ZONA 07</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>87040000</t>
+          <t>87030200</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
@@ -7514,19 +7482,19 @@
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>ESTILO@ESTILOCONSULTORIA.COM.BR</t>
+          <t>I9@I9.CNT.BR</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>13.081.582/0001-20</t>
+          <t>22.374.317/0001-20</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>13081582</t>
+          <t>22374317</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -7546,12 +7514,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>E. CASTALDELLI SILVA LTDA</t>
+          <t>ZIMMERMANN SALON LTDA</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>MAYKO ZIMMERMANN</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -7575,7 +7543,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -7594,7 +7562,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>21/12/2010</t>
+          <t>04/05/2015</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -7617,7 +7585,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>21/12/2010</t>
+          <t>04/05/2015</t>
         </is>
       </c>
       <c r="V47" t="n">
@@ -7630,27 +7598,27 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>SANTA JOAQUINA DE VEDRUNA</t>
+          <t>POMBAL</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>346</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>SALA 02</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>ZONA 05</t>
+          <t>ZONA 03</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>87015150</t>
+          <t>87050140</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
@@ -7663,31 +7631,23 @@
           <t>MARINGA</t>
         </is>
       </c>
-      <c r="AE47" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="AF47" t="inlineStr">
-        <is>
-          <t>32266461</t>
-        </is>
-      </c>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>SALAONEISILVA@GMAIL.COM</t>
+          <t>Nao informado</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>30.040.657/0001-43</t>
+          <t>48.253.775/0001-03</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>30040657</t>
+          <t>48253775</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -7697,7 +7657,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>03</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -7707,12 +7667,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>RIVELINO BARBEARIA E ESTETICA MASCULINA LTDA</t>
+          <t>INSTITUTO DE BELEZA CLAUS ALVES LTDA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>BARBEARIA RIVELINO FUTEBOL CLUBE</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -7736,11 +7696,11 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>97000</v>
+        <v>20000</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>EMPRESA DE PEQUENO PORTE</t>
+          <t>MICRO EMPRESA</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -7755,7 +7715,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>26/03/2018</t>
+          <t>11/10/2022</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -7773,12 +7733,12 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>NAO DECLARADOS</t>
+          <t>BRASIL</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>26/03/2018</t>
+          <t>11/10/2022</t>
         </is>
       </c>
       <c r="V48" t="n">
@@ -7786,32 +7746,32 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>AVENIDA</t>
+          <t>RUA</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>HORACIO RACCANELLO FILHO,ADVOGADO</t>
+          <t>PARANAGUÁ</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>6326</t>
+          <t>249</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>PAVMTO02                  SALA  06                  SETOR 52                  EDIF  TORRE GEMEA</t>
+          <t>LOJA  02</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>ZONA 01</t>
+          <t>ZONA 07</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>87020035</t>
+          <t>87020190</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
@@ -7828,19 +7788,19 @@
       <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>BARBEARIAMARIGA@GMAIL.COM</t>
+          <t>ADM@CONTIMAR.COM.BR</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>44.013.260/0001-77</t>
+          <t>50.444.263/0001-68</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>44013260</t>
+          <t>50444263</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -7850,7 +7810,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>68</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -7860,7 +7820,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>BRUNA GENERALE MORENO  LTDA</t>
+          <t>CONCEPT HAIR SALAO DE BELEZA LTDA</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -7889,7 +7849,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -7908,7 +7868,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>26/10/2021</t>
+          <t>25/04/2023</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -7926,12 +7886,12 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>NAO DECLARADOS</t>
+          <t>BRASIL</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>26/10/2021</t>
+          <t>25/04/2023</t>
         </is>
       </c>
       <c r="V49" t="n">
@@ -7944,27 +7904,27 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>SAO VICENTE DE PAULO</t>
+          <t>JOÃO PAULINO VIEIRA FILHO</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>45</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>LOJA  06</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>JARDIM SAO JORGE</t>
+          <t>ZONA 01</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>87080640</t>
+          <t>87020015</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
@@ -7981,19 +7941,19 @@
       <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>JVSCONSULTORIAEMPRESARIAL@GMAIL.COM</t>
+          <t>CONCEPTHAIRMGA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>13.221.944/0001-30</t>
+          <t>45.941.711/0001-07</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>13221944</t>
+          <t>45941711</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -8003,7 +7963,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>07</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -8013,12 +7973,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>PAPARAZZI INTERNATIONAL SALON LTDA</t>
+          <t>STUDIO EXCELLENCE ALMEIDA LTDA</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>PAPARAZZI INTERNATIONAL SALON</t>
+          <t>STUDIO EXCELLENCE</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -8042,7 +8002,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -8061,7 +8021,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>04/02/2011</t>
+          <t>07/04/2022</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -8070,7 +8030,7 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -8079,12 +8039,12 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>NAO DECLARADOS</t>
+          <t>BRASIL</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>04/02/2011</t>
+          <t>07/04/2022</t>
         </is>
       </c>
       <c r="V50" t="n">
@@ -8097,27 +8057,27 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>JOAO PAULINO VIEIRA FILHO</t>
+          <t>TUIUTI</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>2943</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>SALA  02</t>
+          <t>SALA  01</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>ZONA 07</t>
+          <t>JARDIM PINHEIROS</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>87020015</t>
+          <t>87043629</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
@@ -8130,16 +8090,8 @@
           <t>MARINGA</t>
         </is>
       </c>
-      <c r="AE50" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="AF50" t="inlineStr">
-        <is>
-          <t>32222040</t>
-        </is>
-      </c>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="inlineStr">
         <is>
           <t>Nao informado</t>
@@ -8149,12 +8101,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>15.126.007/0001-21</t>
+          <t>23.626.802/0001-07</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>15126007</t>
+          <t>23626802</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -8164,7 +8116,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>07</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -8174,12 +8126,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>EF DE CASTRO - SALAO DE BELEZA LTDA</t>
+          <t>LARISSA MISSAO PODOLOGA LTDA</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>SALAO MODELLE ELEZIER FREITAS</t>
+          <t>LARISSA MAYARA MISSAO</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -8203,7 +8155,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -8222,7 +8174,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>28/02/2012</t>
+          <t>09/11/2015</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -8231,7 +8183,7 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -8245,7 +8197,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>28/02/2012</t>
+          <t>09/11/2015</t>
         </is>
       </c>
       <c r="V51" t="n">
@@ -8258,27 +8210,27 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>PEDRO TAQUES</t>
+          <t>SAO PAULO</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>1013-A</t>
+          <t>1061</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>SALA  1014</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>ZONA 07</t>
+          <t>ZONA 01</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>87030000</t>
+          <t>87013040</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
@@ -8295,7 +8247,7 @@
       <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>CONTATOCONTABIL@PASTORELLI.CNT.BR</t>
         </is>
       </c>
     </row>
@@ -8310,7 +8262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8364,11 +8316,6 @@
           <t>Nome Representante Legal</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Telefone</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -8412,16 +8359,11 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>44 99649820</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>31611871</t>
+          <t>16653244</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -8431,12 +8373,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GUILHERME DA SILVA BRISCE</t>
+          <t>FABIANA LEIKO MIKUNI DE FREITAS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>***451599**</t>
+          <t>***979549**</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -8446,7 +8388,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>07/05/2021</t>
+          <t>27/07/2021</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -8460,16 +8402,11 @@
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>44 99257008</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10567239</t>
+          <t>15126007</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -8479,12 +8416,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MARILEIDE DE JESUS PAVAN</t>
+          <t>ELEZIER FREITAS DE CASTRO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>***226608**</t>
+          <t>***013109**</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -8494,7 +8431,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>24/07/2012</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -8508,16 +8445,11 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>41 98387956</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10567239</t>
+          <t>43868178</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -8527,22 +8459,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TAYNARA PAVAN DE OLIVEIRA POSSO</t>
+          <t>RENATO ALEXANDRO DE ANDRADE JUNIOR</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>***292809**</t>
+          <t>***376929**</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sócio</t>
+          <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>28/03/2019</t>
+          <t>14/10/2021</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -8556,16 +8488,11 @@
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>41 98387956</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13428716</t>
+          <t>43868178</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -8575,12 +8502,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LAIS RUSSO PAINA FREITAS</t>
+          <t>LUCAS FERNANDO FRANZIN</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>***779199**</t>
+          <t>***870719**</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -8590,7 +8517,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>14/10/2021</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -8604,16 +8531,11 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>44 30319488</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>13428716</t>
+          <t>43868178</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -8623,22 +8545,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SIDERLEY FREITAS DE CASTRO</t>
+          <t>FELIPE GERALDI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>***142339**</t>
+          <t>***628749**</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sócio</t>
+          <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>14/10/2021</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -8652,16 +8574,11 @@
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>44 30319488</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>44013260</t>
+          <t>45945267</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -8671,12 +8588,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BRUNA GENERALE MORENO</t>
+          <t>JEISIELE GONCALVES DE OLIVEIRA CARVALHO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>***389279**</t>
+          <t>***656699**</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -8686,7 +8603,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>26/10/2021</t>
+          <t>07/04/2022</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -8700,16 +8617,11 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>44 98708181</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>48922076</t>
+          <t>45945267</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -8719,22 +8631,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HELIO MARQUES DA SILVA</t>
+          <t>JEISILA CRISTIAN GONCALVES DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>***309019**</t>
+          <t>***555879**</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sócio</t>
+          <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>19/12/2022</t>
+          <t>07/04/2022</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -8748,16 +8660,11 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>44 97436323</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>48922076</t>
+          <t>45945267</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -8767,12 +8674,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>JAQUELINE RUUS DE SOUZA</t>
+          <t>NILZA DE FATIMA DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>***741079**</t>
+          <t>***086529**</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -8782,7 +8689,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>19/12/2022</t>
+          <t>07/04/2022</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -8796,16 +8703,11 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>44 97436323</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>48922076</t>
+          <t>34215594</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -8815,12 +8717,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>JAQUELINE MARIA GENERAL MARQUES KLOSOSKI</t>
+          <t>RONALDO BALEEIRO VIOTTO</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>***523809**</t>
+          <t>***477459**</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -8830,7 +8732,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>19/12/2022</t>
+          <t>28/07/2022</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -8844,16 +8746,11 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>44 97436323</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30040657</t>
+          <t>34215594</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -8863,12 +8760,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>REGINALDO SOCORRO SANTOS</t>
+          <t>STEFANIE CAMILA DE OLIVEIRA MALTA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>***161629**</t>
+          <t>***612599**</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -8878,7 +8775,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>14/06/2021</t>
+          <t>28/07/2022</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -8892,16 +8789,11 @@
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>44 30400803</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10465544</t>
+          <t>42700263</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -8911,12 +8803,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ROSEMEIRY PEREIRA DE LIMA</t>
+          <t>FLAVIA LOPES DE POLLI BENITES</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>***433721**</t>
+          <t>***242959**</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -8926,7 +8818,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>13/07/2021</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -8940,16 +8832,11 @@
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>44 99757467</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10465544</t>
+          <t>15126007</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -8959,22 +8846,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ROBERTA DE LIMA SANTANA</t>
+          <t>LUZIA HERRERA DE CASTRO</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>***845979**</t>
+          <t>***513199**</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sócio-Administrador</t>
+          <t>Sócio</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>24/07/2012</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -8988,16 +8875,11 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>44 99757467</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10465544</t>
+          <t>23328656</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -9007,22 +8889,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MARIA APARECIDA DE LIMA SANTANA</t>
+          <t>GABRIELA PAISCA DA SILVA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>***830619**</t>
+          <t>***656769**</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sócio</t>
+          <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>14/12/2018</t>
+          <t>23/09/2015</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -9036,16 +8918,11 @@
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>44 99757467</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>11532289</t>
+          <t>23328656</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -9055,22 +8932,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>JACKSON RODRIGO DE MATTOS</t>
+          <t>DANIELA PAISCA MAGALHAES DA SILVA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>***625869**</t>
+          <t>***916339**</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sócio-Administrador</t>
+          <t>Sócio</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>01/07/2011</t>
+          <t>23/09/2015</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -9084,16 +8961,11 @@
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>44 88211475</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>29708529</t>
+          <t>24680078</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -9103,12 +8975,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DOUGLAS ALVES PEREIRA</t>
+          <t>ALINE DE ARRUDA GARCIA DOS SANTOS</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>***907049**</t>
+          <t>***602509**</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -9118,7 +8990,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09/02/2021</t>
+          <t>28/04/2016</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -9132,16 +9004,11 @@
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>44 30290017</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>27281947</t>
+          <t>24680078</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -9151,12 +9018,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>EDNALDO CARLOS ROZAO</t>
+          <t>VERA LUCIA DE ARRUDA GARCIA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>***515849**</t>
+          <t>***726549**</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -9166,7 +9033,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>13/12/2018</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -9180,16 +9047,11 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>44 99944577</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>27281947</t>
+          <t>27858361</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -9199,12 +9061,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ROSIMEIRE COLOGNESE DOS SANTOS ROZAO</t>
+          <t>VAGNER JOAQUIM FERREIRA DA SILVA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>***885459**</t>
+          <t>***437310**</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -9214,7 +9076,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>13/12/2018</t>
+          <t>05/06/2020</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -9228,16 +9090,11 @@
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>44 99944577</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>11075159</t>
+          <t>48764663</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -9247,12 +9104,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MARIA HELENA SANTOS</t>
+          <t>VILSON GUERRA DOS SANTOS</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>***952959**</t>
+          <t>***156589**</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -9262,7 +9119,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>02/10/2017</t>
+          <t>30/11/2022</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -9276,16 +9133,11 @@
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>44 32278602</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>11075159</t>
+          <t>30468613</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -9295,12 +9147,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ALEXANDRE DE LIMA</t>
+          <t>PATRICIA MICHELE SOARES DANTE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>***791439**</t>
+          <t>***646802**</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -9310,7 +9162,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>02/10/2017</t>
+          <t>09/11/2021</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -9324,16 +9176,11 @@
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>44 32278602</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>15126007</t>
+          <t>29708529</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -9343,12 +9190,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ELEZIER FREITAS DE CASTRO</t>
+          <t>DOUGLAS ALVES PEREIRA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>***013109**</t>
+          <t>***907049**</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -9358,7 +9205,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>24/07/2012</t>
+          <t>09/02/2021</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -9372,16 +9219,11 @@
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>44 30297869</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>15126007</t>
+          <t>25330272</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -9391,22 +9233,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LUZIA HERRERA DE CASTRO</t>
+          <t>WAGNER ALBERTO PAES BARRETO</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>***513199**</t>
+          <t>***496334**</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sócio</t>
+          <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>24/07/2012</t>
+          <t>04/08/2022</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -9420,16 +9262,11 @@
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>44 30297869</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30809468</t>
+          <t>11222870</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -9439,12 +9276,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ELISSANDRA DA SILVA</t>
+          <t>ISABEL ROSA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>***270199**</t>
+          <t>***651559**</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -9454,7 +9291,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>28/06/2018</t>
+          <t>01/10/2009</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -9468,16 +9305,11 @@
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>44 97613344</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>47585067</t>
+          <t>43157853</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -9487,12 +9319,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>JONAS DE JESUS SEGES</t>
+          <t>JOICE LOANA OLIANO DOS SANTOS</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>***965678**</t>
+          <t>***201729**</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -9502,7 +9334,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>16/08/2022</t>
+          <t>17/08/2021</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -9516,16 +9348,11 @@
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>44 30400800</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>47585067</t>
+          <t>11222870</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -9535,12 +9362,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HELENA APARECIDA BONILHA DE ANDRADE SEGES</t>
+          <t>ISABELA ROSA BORBOREMA BARROS DE CARVALHO</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>***476209**</t>
+          <t>***904359**</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -9550,7 +9377,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>16/08/2022</t>
+          <t>01/10/2009</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -9564,16 +9391,11 @@
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>44 30400800</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>43735529</t>
+          <t>12300492</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -9583,12 +9405,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>VALERIA SICHIERI GUILHEN</t>
+          <t>LUCIANA GROSSMANN</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>***069539**</t>
+          <t>***977139**</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -9598,7 +9420,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>30/07/2018</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -9612,16 +9434,11 @@
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>44 98565985</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>43735529</t>
+          <t>12300492</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -9631,12 +9448,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>JULIANO SICHIERI GUILHEN</t>
+          <t>TIAGO FOGACA CRESPO</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>***749479**</t>
+          <t>***858739**</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -9646,7 +9463,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>30/07/2018</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -9660,16 +9477,11 @@
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>44 98565985</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>39701043</t>
+          <t>32551718</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -9679,22 +9491,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ARYANE QUIARATI PENTEADO DE LIMA</t>
+          <t>ROGERIO NOBORO HIGUCHI</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>***358959**</t>
+          <t>***909129**</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sócio-Administrador</t>
+          <t>Sócio</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>03/08/2022</t>
+          <t>24/01/2019</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -9708,16 +9520,11 @@
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>44 99414805</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>25330272</t>
+          <t>17274626</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -9727,12 +9534,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>WAGNER ALBERTO PAES BARRETO</t>
+          <t>ELIANE LIRA DE SOUZA GONCALVES</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>***496334**</t>
+          <t>***273239**</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -9742,7 +9549,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>04/08/2022</t>
+          <t>04/12/2012</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -9756,16 +9563,11 @@
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>44 98618400</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>22374317</t>
+          <t>31889052</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -9775,12 +9577,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MAYKO ZIMMERMANN</t>
+          <t>LEANDRO BRAIDO MACRI</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>***045369**</t>
+          <t>***795239**</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -9790,7 +9592,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>12/02/2021</t>
+          <t>29/10/2018</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -9804,16 +9606,11 @@
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>44 97739398</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>34192570</t>
+          <t>31889052</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -9823,22 +9620,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ALEXANDRE DE LIMA</t>
+          <t>VINICIUS SOARES VELOSO</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>***791439**</t>
+          <t>***604259**</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sócio-Administrador</t>
+          <t>Sócio</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>12/07/2019</t>
+          <t>29/03/2023</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -9852,16 +9649,11 @@
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>44 91815111</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>34192570</t>
+          <t>32551718</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -9871,12 +9663,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ARYANE QUIARATI PENTEADO DE LIMA</t>
+          <t>ANA CLAUDIA SOUZA BALANI DA SILVA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>***358959**</t>
+          <t>***289539**</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -9886,7 +9678,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>12/07/2019</t>
+          <t>24/01/2019</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -9900,16 +9692,11 @@
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>44 91815111</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>34814573</t>
+          <t>32551718</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -9919,22 +9706,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>WESLEY DIOGO VINCENT DA SILVA</t>
+          <t>ANA PAULA SOUZA DA SILVA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>***170649**</t>
+          <t>***218129**</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sócio-Administrador</t>
+          <t>Sócio</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>22/02/2023</t>
+          <t>24/01/2019</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -9948,16 +9735,11 @@
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>44 33019570</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>34814573</t>
+          <t>46513010</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -9967,22 +9749,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ROAN FELIZATE DUTRA DE SOUZA</t>
+          <t>DALVA DE OLIVEIRA BABETTO MENDES</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>***631339**</t>
+          <t>***044869**</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sócio</t>
+          <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>22/02/2023</t>
+          <t>24/05/2022</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -9996,16 +9778,11 @@
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>44 33019570</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>51219125</t>
+          <t>40817253</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -10015,12 +9792,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CALEBE MARIANO DUARTE</t>
+          <t>LETYCIA RODRIGUES CZEZACKI</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>***082148**</t>
+          <t>***263519**</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -10030,7 +9807,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>28/06/2023</t>
+          <t>11/02/2021</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -10044,16 +9821,11 @@
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>44 33541301</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>48253775</t>
+          <t>29937394</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -10063,12 +9835,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SILVIA MARA ALVES</t>
+          <t>VINICIUS MENARIM HUMAMOTO</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>***486821**</t>
+          <t>***649229**</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -10078,7 +9850,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>11/10/2022</t>
+          <t>14/03/2018</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -10092,16 +9864,11 @@
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>44 32621018</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>28182216</t>
+          <t>44023400</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -10111,22 +9878,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ANDERSON PAULA GUIMARAES</t>
+          <t>FABRICIA BRASILINO DE SOUZA RODRIGUES</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>***821539**</t>
+          <t>***576729**</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sócio-Administrador</t>
+          <t>Sócio</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>14/07/2017</t>
+          <t>26/10/2021</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -10140,16 +9907,11 @@
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>44 30298053</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>28182216</t>
+          <t>44023400</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -10159,12 +9921,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>LEANDRO BRAIDO MACRI</t>
+          <t>LETICIA BRASILINO DE SOUZA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>***795239**</t>
+          <t>***915139**</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -10174,7 +9936,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>25/09/2018</t>
+          <t>26/10/2021</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -10188,16 +9950,11 @@
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>44 30298053</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>32348958</t>
+          <t>46513010</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -10207,22 +9964,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ANDREIA APARECIDA DE SOUZA CUSTODIO SANTANA DA SILVA</t>
+          <t>JOEL MENDES</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>***459039**</t>
+          <t>***770148**</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sócio-Administrador</t>
+          <t>Sócio</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>26/01/2022</t>
+          <t>24/05/2022</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -10236,16 +9993,11 @@
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>44 30463033</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>13288803</t>
+          <t>46513010</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -10255,12 +10007,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NILSON TAKESHI HOSHINO</t>
+          <t>RAFAEL HENRIQUE FERREIRA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>***298569**</t>
+          <t>***394489**</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -10270,7 +10022,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>02/12/2021</t>
+          <t>24/05/2022</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -10284,16 +10036,11 @@
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>44 32220282</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>34355051</t>
+          <t>27281947</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -10303,12 +10050,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>REGINALDO SOCORRO SANTOS</t>
+          <t>EDNALDO CARLOS ROZAO</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>***161629**</t>
+          <t>***515849**</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -10318,7 +10065,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>22/06/2020</t>
+          <t>13/12/2018</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -10332,16 +10079,11 @@
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>44 99997705</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>30468613</t>
+          <t>47585067</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -10351,12 +10093,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PATRICIA MICHELE SOARES DANTE</t>
+          <t>JONAS DE JESUS SEGES</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>***646802**</t>
+          <t>***965678**</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -10366,7 +10108,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>09/11/2021</t>
+          <t>16/08/2022</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -10380,16 +10122,11 @@
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>44 98454648</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>42700263</t>
+          <t>47585067</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -10399,22 +10136,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>FLAVIA LOPES DE POLLI BENITES</t>
+          <t>HELENA APARECIDA BONILHA DE ANDRADE SEGES</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>***242959**</t>
+          <t>***476209**</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sócio-Administrador</t>
+          <t>Sócio</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>13/07/2021</t>
+          <t>16/08/2022</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -10428,16 +10165,11 @@
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>44 98058366</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>48764663</t>
+          <t>27281947</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -10447,12 +10179,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>VILSON GUERRA DOS SANTOS</t>
+          <t>ROSIMEIRE COLOGNESE DOS SANTOS ROZAO</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>***156589**</t>
+          <t>***885459**</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -10462,7 +10194,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>30/11/2022</t>
+          <t>13/12/2018</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -10476,16 +10208,11 @@
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>44 30253626</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>48002170</t>
+          <t>29615441</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -10495,12 +10222,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>FABIO JOSE DE SOUZA CASTRO</t>
+          <t>GUSTAVO LOPES DA SILVA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>***616959**</t>
+          <t>***633868**</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -10510,7 +10237,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>19/09/2022</t>
+          <t>10/02/2022</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -10524,16 +10251,11 @@
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>44 30297659</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>31889052</t>
+          <t>47637067</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -10543,12 +10265,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LEANDRO BRAIDO MACRI</t>
+          <t>GLERISON RHAYD GALLI TOMAZI</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>***795239**</t>
+          <t>***705189**</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -10558,7 +10280,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>29/10/2018</t>
+          <t>19/08/2022</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -10572,16 +10294,11 @@
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>44 33547787</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>31889052</t>
+          <t>30554913</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -10591,22 +10308,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>VINICIUS SOARES VELOSO</t>
+          <t>ERICA PEREIRA ROSA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>***604259**</t>
+          <t>***598869**</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sócio</t>
+          <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>29/03/2023</t>
+          <t>17/05/2022</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -10620,16 +10337,11 @@
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>44 33547787</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>45442512</t>
+          <t>45941711</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -10639,12 +10351,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SANDRA MASSON UTINOI</t>
+          <t>NILZA VALERIA DE ALMEIDA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>***247979**</t>
+          <t>***217638**</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -10654,7 +10366,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>24/02/2022</t>
+          <t>07/04/2022</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -10668,16 +10380,11 @@
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>44 30316050</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>45442512</t>
+          <t>30709796</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -10687,22 +10394,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ENZO MASSON PORTES DA FONSECA</t>
+          <t>WILLIANS PEREIRA DA SILVA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>***534229**</t>
+          <t>***851769**</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sócio Menor (Assistido/Representado)</t>
+          <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>24/02/2022</t>
+          <t>15/06/2018</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -10712,24 +10419,15 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>***247979**</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>SANDRA MASSON UTINOI</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>44 30316050</t>
-        </is>
-      </c>
+          <t>***000000**</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>17710705</t>
+          <t>31537425</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10739,12 +10437,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>JULIO CESAR MARTINS RODRIGUES</t>
+          <t>JOAO PEDRO CARREGOSA ANDRADE COSTA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>***120869**</t>
+          <t>***599239**</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -10754,7 +10452,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>24/07/2020</t>
+          <t>08/06/2022</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -10768,16 +10466,11 @@
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>44 99237187</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>13221944</t>
+          <t>12766678</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10787,22 +10480,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>FLAVIO JUNIOR MENDES DA SILVA</t>
+          <t>LUCIA ROSA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>***098569**</t>
+          <t>***783909**</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sócio-Administrador</t>
+          <t>Sócio</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>04/02/2011</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -10816,16 +10509,11 @@
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>44 32222040</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>13221944</t>
+          <t>12766678</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10835,12 +10523,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PEDRO VICENTE GOMES</t>
+          <t>ISABEL ROSA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>***063179**</t>
+          <t>***651559**</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -10850,7 +10538,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>04/02/2011</t>
+          <t>28/04/2021</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -10864,16 +10552,11 @@
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>44 32222040</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>34215594</t>
+          <t>45442512</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -10883,22 +10566,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>RONALDO BALEEIRO VIOTTO</t>
+          <t>SANDRA MASSON UTINOI</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>***477459**</t>
+          <t>***247979**</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sócio</t>
+          <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>28/07/2022</t>
+          <t>24/02/2022</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -10912,16 +10595,11 @@
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>44 98612552</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>34215594</t>
+          <t>45442512</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -10931,22 +10609,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>STEFANIE CAMILA DE OLIVEIRA MALTA</t>
+          <t>ENZO MASSON PORTES DA FONSECA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>***612599**</t>
+          <t>***534229**</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sócio-Administrador</t>
+          <t>Sócio Menor (Assistido/Representado)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>28/07/2022</t>
+          <t>24/02/2022</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -10956,20 +10634,19 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>***000000**</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>44 98612552</t>
+          <t>***247979**</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>SANDRA MASSON UTINOI</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>35393898</t>
+          <t>17710705</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -10979,12 +10656,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>THIAGO CALIXTO OLIVEIRA</t>
+          <t>JULIO CESAR MARTINS RODRIGUES</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>***254578**</t>
+          <t>***120869**</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -10994,7 +10671,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>04/11/2019</t>
+          <t>24/07/2020</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -11008,16 +10685,11 @@
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>44 30479697</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>35393898</t>
+          <t>50981680</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -11027,12 +10699,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>WILLIAM LOPES DE MACEDO</t>
+          <t>NICOLY THOME FREIRIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>***980808**</t>
+          <t>***097889**</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -11042,7 +10714,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>04/11/2019</t>
+          <t>07/06/2023</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -11056,16 +10728,11 @@
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>44 30479697</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>35393898</t>
+          <t>24398383</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -11075,12 +10742,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>FELIPE DE FREITAS MEDEIROS</t>
+          <t>GLAUBER SIQUEIRA MAGALHAES</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>***140789**</t>
+          <t>***360979**</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -11090,7 +10757,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>04/11/2019</t>
+          <t>09/02/2023</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -11104,16 +10771,11 @@
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>44 30479697</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>35393898</t>
+          <t>33734968</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -11123,12 +10785,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GENILTON DA SILVA RODRIGUES</t>
+          <t>MATHEUS HENRIQUE TERRA DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>***538269**</t>
+          <t>***841899**</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -11138,7 +10800,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>04/11/2019</t>
+          <t>02/03/2020</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -11152,16 +10814,11 @@
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>44 30479697</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>35393898</t>
+          <t>31611871</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -11171,12 +10828,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>IVAN DEZOTI JUNIOR</t>
+          <t>GUILHERME DA SILVA BRISCE</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>***666069**</t>
+          <t>***451599**</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -11186,7 +10843,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>04/11/2019</t>
+          <t>07/05/2021</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -11200,16 +10857,11 @@
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>44 30479697</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>19427911</t>
+          <t>47618875</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -11219,12 +10871,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CELIA REGINA MARINHO COSMO DE SOUSA</t>
+          <t>YASMIN FERRACINI FOUTO</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>***087358**</t>
+          <t>***127279**</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -11234,7 +10886,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>05/12/2013</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -11248,16 +10900,11 @@
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>44 33057334</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>19427911</t>
+          <t>20109887</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -11267,12 +10914,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SIMONE DA LUZ BARBOSA</t>
+          <t>ROSE APARECIDA COSTA BOCARDI</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>***009371**</t>
+          <t>***748939**</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -11282,7 +10929,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>05/12/2013</t>
+          <t>11/04/2014</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -11296,16 +10943,11 @@
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>44 33057334</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>38143484</t>
+          <t>20109887</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -11315,12 +10957,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ISABELA LAHUTT ANTONIO</t>
+          <t>CLAUDETE LUCIANA MARQUES PAVANI</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>***399809**</t>
+          <t>***927109**</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -11330,7 +10972,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>19/08/2020</t>
+          <t>11/04/2014</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -11344,16 +10986,11 @@
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>44 99380082</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>45945267</t>
+          <t>20109887</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -11363,12 +11000,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>JEISIELE GONCALVES DE OLIVEIRA CARVALHO</t>
+          <t>ELIANE CACIA DE SOUZA LIMA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>***656699**</t>
+          <t>***568619**</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -11378,7 +11015,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>07/04/2022</t>
+          <t>11/04/2014</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -11392,16 +11029,11 @@
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>44 30472810</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>45945267</t>
+          <t>30809468</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -11411,12 +11043,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>JEISILA CRISTIAN GONCALVES DE OLIVEIRA</t>
+          <t>ELISSANDRA DA SILVA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>***555879**</t>
+          <t>***270199**</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -11426,7 +11058,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>07/04/2022</t>
+          <t>28/06/2018</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -11440,16 +11072,11 @@
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>44 30472810</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>45945267</t>
+          <t>22374317</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -11459,12 +11086,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>NILZA DE FATIMA DE OLIVEIRA</t>
+          <t>MAYKO ZIMMERMANN</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>***086529**</t>
+          <t>***045369**</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -11474,7 +11101,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>07/04/2022</t>
+          <t>12/02/2021</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -11488,16 +11115,11 @@
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>44 30472810</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>44762237</t>
+          <t>43735529</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -11507,12 +11129,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>JOYCE RODRIGUES PEREIRA DOS REIS</t>
+          <t>VALERIA SICHIERI GUILHEN</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>***061368**</t>
+          <t>***069539**</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -11522,7 +11144,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>06/01/2022</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -11536,16 +11158,11 @@
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>44 98427176</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>41590393</t>
+          <t>43735529</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -11555,12 +11172,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MONICA MAYUMI SUZUKI</t>
+          <t>JULIANO SICHIERI GUILHEN</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>***983979**</t>
+          <t>***749479**</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -11570,7 +11187,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>12/04/2022</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -11584,16 +11201,11 @@
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>44 99368599</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>32946528</t>
+          <t>32348958</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -11603,22 +11215,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>LARISSA ISABELE DE OLIVEIRA</t>
+          <t>ANDREIA APARECIDA DE SOUZA CUSTODIO SANTANA DA SILVA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>***210659**</t>
+          <t>***459039**</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sócio</t>
+          <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>06/03/2019</t>
+          <t>26/01/2022</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -11632,16 +11244,11 @@
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>44 32297237</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>32946528</t>
+          <t>50444263</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -11651,12 +11258,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>LETICIA FERNANDA DE OLIVEIRA</t>
+          <t>FABIANA SOUZA CONTE</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>***266659**</t>
+          <t>***763989**</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -11666,7 +11273,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>06/03/2019</t>
+          <t>25/04/2023</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -11680,16 +11287,11 @@
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>44 32297237</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>14787941</t>
+          <t>29353438</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -11699,12 +11301,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MELITON CASTELLO BAUCELLS</t>
+          <t>PAOLA CRISTINA FRANCOLIN</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>***110759**</t>
+          <t>***294779**</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -11714,12 +11316,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>19/12/2011</t>
+          <t>24/06/2020</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>ESPANHA</t>
+          <t>NAO DECLARADOS</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -11728,16 +11330,11 @@
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>44 32268889</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>14787941</t>
+          <t>48253775</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -11747,12 +11344,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SANTIAGO MACIAN SECO</t>
+          <t>SILVIA MARA ALVES</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>***110769**</t>
+          <t>***486821**</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -11762,12 +11359,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>19/12/2011</t>
+          <t>11/10/2022</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>ESPANHA</t>
+          <t>NAO DECLARADOS</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -11776,16 +11373,11 @@
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>44 32268889</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>26882648</t>
+          <t>23626802</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -11795,22 +11387,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ALEXANDRE LEONARDO DE LIMA COUTINHO</t>
+          <t>LARISSA MAYARA MISSAO</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>***685609**</t>
+          <t>***247398**</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sócio</t>
+          <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>17/01/2017</t>
+          <t>15/10/2021</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -11824,16 +11416,11 @@
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>44 91335565</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>26882648</t>
+          <t>35393898</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -11843,12 +11430,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ALESSANDRO DE OLIVEIRA ROMAN</t>
+          <t>THIAGO CALIXTO OLIVEIRA</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>***056199**</t>
+          <t>***254578**</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -11858,7 +11445,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>24/08/2018</t>
+          <t>04/11/2019</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -11872,16 +11459,11 @@
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>44 91335565</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>47637067</t>
+          <t>35393898</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -11891,12 +11473,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>GLERISON RHAYD GALLI TOMAZI</t>
+          <t>WILLIAM LOPES DE MACEDO</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>***705189**</t>
+          <t>***980808**</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -11906,7 +11488,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>19/08/2022</t>
+          <t>04/11/2019</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -11920,16 +11502,11 @@
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>44 99606574</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>50017928</t>
+          <t>35393898</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -11939,12 +11516,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>FABIANA JUNKLAUS FERRO</t>
+          <t>FELIPE DE FREITAS MEDEIROS</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>***134979**</t>
+          <t>***140789**</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -11954,7 +11531,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>21/03/2023</t>
+          <t>04/11/2019</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -11968,16 +11545,11 @@
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>44 91725758</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>13081582</t>
+          <t>35393898</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -11987,12 +11559,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>EVELIN CASTALDELLI SILVA</t>
+          <t>GENILTON DA SILVA RODRIGUES</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>***393989**</t>
+          <t>***538269**</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -12002,7 +11574,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>15/01/2015</t>
+          <t>04/11/2019</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -12016,16 +11588,11 @@
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>44 91731821</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>24453629</t>
+          <t>35393898</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -12035,12 +11602,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ANA LUCIA DA SILVA</t>
+          <t>IVAN DEZOTI JUNIOR</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>***438549**</t>
+          <t>***666069**</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -12050,7 +11617,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>25/04/2022</t>
+          <t>04/11/2019</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -12064,107 +11631,6 @@
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>44 32232745</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>26835569</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>PESSOA FISICA</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>FABIO VELUCINO DE MATTOS SCOPEL</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>***022649**</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Sócio-Administrador</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>10/01/2017</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>NAO DECLARADOS</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>***000000**</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>44 30310263</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>26835569</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>PESSOA FISICA</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>ELAINE APARECIDA DE MATTOS</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>***989689**</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Sócio-Administrador</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>10/01/2017</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>NAO DECLARADOS</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>***000000**</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>44 30310263</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Empresas-Sócios_CNAE-9602501_Cidade-Maringa_test_1.xlsx
+++ b/Empresas-Sócios_CNAE-9602501_Cidade-Maringa_test_1.xlsx
@@ -604,12 +604,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12.300.492/0001-10</t>
+          <t>19.674.954/0001-08</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12300492</t>
+          <t>19674954</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -629,12 +629,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>INFINITY STUDIO HAIR CABELO &amp; TATOO LTDA</t>
+          <t>J A S - CABELEIREIRO LTDA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>INFINITY STUDIO HAIR</t>
+          <t>EQUIPE CARLOS CABELEIREIROS</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -642,15 +642,23 @@
           <t>Sociedade Empresária Limitada</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>NAO</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>NAO</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>93700</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -669,7 +677,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>26/07/2010</t>
+          <t>31/01/2014</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -678,7 +686,7 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -692,7 +700,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>26/07/2010</t>
+          <t>31/01/2014</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -705,27 +713,27 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>NEO ALVES MARTINS</t>
+          <t>MARECHAL FLORIANO PEIXOTO</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2113</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>SALA  B</t>
+          <t>APT   501</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>ZONA 01</t>
+          <t>ZONA 07</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>87013060</t>
+          <t>87030030</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -742,19 +750,19 @@
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>INFINITYSTUDIOHAIR@HOTMAIL.COM</t>
+          <t>Nao informado</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>29.708.529/0001-46</t>
+          <t>47.618.875/0001-15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>29708529</t>
+          <t>47618875</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -764,7 +772,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -774,12 +782,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>LOBAO BARBEARIA LTDA</t>
+          <t>YFF MICROPIGMENTACAO LTDA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>LOBAO BARBEARIA</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -803,11 +811,11 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>110000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>EMPRESA DE PEQUENO PORTE</t>
+          <t>MICRO EMPRESA</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -822,7 +830,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>19/02/2018</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -840,12 +848,12 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>NAO DECLARADOS</t>
+          <t>BRASIL</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>19/02/2018</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -858,27 +866,27 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>DOS PALMARES</t>
+          <t>TIRADENTES</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>57</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>SALA  01</t>
+          <t>SALA  02</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>JARDIM LIBERDADE</t>
+          <t>ZONA 02</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>87047035</t>
+          <t>87013340</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -891,56 +899,48 @@
           <t>MARINGA</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>98822357.0</t>
-        </is>
-      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>DOUGLAS_SK2_@HOTMAIL.COM</t>
+          <t>YASMINFERRACINI@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>29.937.394/0003-52</t>
+          <t>38.143.484/0001-09</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>29937394</t>
+          <t>38143484</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0003</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FILIAL</t>
+          <t>MATRIZ</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>V. MENARIM HUMAMOTO SALAO DE BELEZA LTDA</t>
+          <t>SENHORA BARBA LAHUTT LTDA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ESTUDIO DA TESOURA CATUAI MARINGA</t>
+          <t>BARBEARIA SRA BARBA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -950,21 +950,21 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>NAO</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>NAO</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>96000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>16/11/2021</t>
+          <t>19/08/2020</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>16/11/2021</t>
+          <t>19/08/2020</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -1019,27 +1019,27 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>CERRO AZUL</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>9161</t>
+          <t>864</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>LOJA  204</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>GLEBA PATRIMONIO MARINGA</t>
+          <t>ZONA 02</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>87070000</t>
+          <t>87010000</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1056,19 +1056,19 @@
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>ESCRITORIOMERCOSUL@HOTMAIL.COM</t>
+          <t>SSENHORA.BARBA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>32.348.958/0001-64</t>
+          <t>43.735.529/0001-66</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>32348958</t>
+          <t>43735529</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>66</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1088,12 +1088,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MARILHA MIRANDA - O TERRITORIO DAS DIVAS LTDA</t>
+          <t>V &amp; J GUILHEN LTDA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>MARILHA MIRANDA</t>
+          <t>RUBIO THURE BELEZA ESTETICA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>03/01/2019</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>03/01/2019</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -1172,27 +1172,27 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>JOSE ALVES NENDO</t>
+          <t>RIO BRANCO</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>273</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>SALA  02                  CONJ  SAO SILVESTRE</t>
+          <t>SALA  04</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>GLEBA RIBEIRAO PINGUIM</t>
+          <t>ZONA 04</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>87045260</t>
+          <t>87014140</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1209,19 +1209,19 @@
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>MARILHAMIRANDAPAZ@GMAIL.COM</t>
+          <t>JULIANO.SGUILHEN@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30.468.613/0001-19</t>
+          <t>05.963.281/0001-00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>30468613</t>
+          <t>05963281</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1241,12 +1241,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>PS SERVICOS DE BELEZA LTDA</t>
+          <t>A..D.S. SANT ANA &amp; SANTANA LTDA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>STUDIO ALEX SANT ANA</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1254,23 +1254,15 @@
           <t>Sociedade Empresária Limitada</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>NAO</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1289,7 +1281,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>16/05/2018</t>
+          <t>0//0</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1298,7 +1290,7 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1312,7 +1304,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>16/05/2018</t>
+          <t>04/11/2003</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1320,32 +1312,32 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>RUA</t>
+          <t>AVENIDA</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>PIONEIRO ANTONIO PIETRO BON</t>
+          <t>PRESIDENTE JUSCELINO KUBITSCHEK DE OLIVEIRA</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1185</t>
+          <t>581</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>SALA  5</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>JARDIM DIAS II</t>
+          <t>ZONA 02</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>87025834</t>
+          <t>87010440</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1358,23 +1350,31 @@
           <t>MARINGA</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>2273923</t>
+        </is>
+      </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>ajp_dante@outlook.com</t>
+          <t>iunklaus@teracom.com.br</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>29.353.438/0001-35</t>
+          <t>29.461.363/0001-06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>29353438</t>
+          <t>29461363</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1394,12 +1394,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>P. C. F. MANICURE LTDA</t>
+          <t>SELETO CENTRO DE BELEZA LTDA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SI TECNOLOGIA DA INFORMACAO</t>
+          <t>SELETO - CENTRO DE BELEZA</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1423,11 +1423,11 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>MICRO EMPRESA</t>
+          <t>EMPRESA DE PEQUENO PORTE</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
+          <t>17/01/2018</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
+          <t>17/01/2018</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1478,27 +1478,27 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>CATUABA</t>
+          <t>JOUBERT DE CARVALHO</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>446</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>LOJA  02</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>JARDIM VITORIA</t>
+          <t>ZONA 01</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>87023730</t>
+          <t>87013200</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1515,19 +1515,19 @@
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>IVANCARLOS.DOMINGUES@GMAIL.COM</t>
+          <t>SELETOMARINGAPR@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>50.981.680/0001-40</t>
+          <t>31.889.052/0001-94</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>50981680</t>
+          <t>31889052</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>94</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1547,12 +1547,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DRA NICOLY THOME ESTETICA AVANCADA LTDA</t>
+          <t>BARBEARIA RETRO LTDA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>DRA NICOLY THOME ESTETICA AVANCADA</t>
+          <t>BARBEARIA RETROFIT - UNIDADE 3</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>29/10/2018</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1613,12 +1613,12 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>BRASIL</t>
+          <t>NAO DECLARADOS</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>29/10/2018</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1626,32 +1626,32 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>RUA</t>
+          <t>AVENIDA</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>BERNARDINO DE CAMPOS</t>
+          <t>ARQUITETO NILDO RIBEIRO DA ROCHA</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>4561</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>SALA  01</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>ZONA  07</t>
+          <t>JARDIM HIGIENOPOLIS</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>87030322</t>
+          <t>87060390</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -1668,19 +1668,19 @@
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>CONTATOCONTABIL@PASTORELLI.CNT.BR</t>
+          <t>LEANDROMACRI@LIVE.COM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>31.537.425/0001-68</t>
+          <t>27.858.361/0001-20</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>31537425</t>
+          <t>27858361</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1700,12 +1700,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>JOAO PEDRO CARREGOSA ANDRADE COSTA LTDA</t>
+          <t>O JOAQUIM PENTEADOS LTDA</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>JC VINTAGE CLUB</t>
+          <t>JOAQUIM FERREIRA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>18/09/2018</t>
+          <t>31/05/2017</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>18/09/2018</t>
+          <t>31/05/2017</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1784,12 +1784,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>TABAETE</t>
+          <t>ANTONIO BRAMBILLA</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>506</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1799,12 +1799,12 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>JARDIM TABAETE</t>
+          <t>JARDIM PARIS</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>87005140</t>
+          <t>87083400</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -1821,19 +1821,19 @@
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>jp_jpandrade@hotmail.com</t>
+          <t>PENTEADOSJOAQUIMFERREIRA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>45.945.267/0001-90</t>
+          <t>46.063.613/0001-79</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>45945267</t>
+          <t>46063613</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>79</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1853,12 +1853,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PANTERA LASHES SALAO DE BELEZA E ESTETICA LTDA</t>
+          <t>MAISON CONCEPT SALAO DE BELEZA LTDA</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>PANTERA BEAUTY</t>
+          <t>MAISON CONCEPT SALAO DE BELEZA</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>07/04/2022</t>
+          <t>18/04/2022</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>07/04/2022</t>
+          <t>18/04/2022</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1937,27 +1937,27 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>SÃO DOMINGOS</t>
+          <t>COMENDADOR AMORIM PEDROSA MOLEIRINHO</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1155</t>
+          <t>2309</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>SALA  04</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>VILA MORANGUEIRA</t>
+          <t>VILA EMÍLIA</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>87040000</t>
+          <t>87010190</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -1974,19 +1974,19 @@
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>ESTILO@ESTILOCONSULTORIA.COM.BR</t>
+          <t>MAISON.CONCEPT.MGA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12.766.678/0001-69</t>
+          <t>48.922.076/0001-09</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12766678</t>
+          <t>48922076</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>09</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2006,12 +2006,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ISABEL ROSA &amp; CIA LTDA</t>
+          <t>MARQUES, RUUS &amp; CIA LTDA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>STILO CACHOS</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>70000</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>19/12/2022</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2063,7 +2063,7 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -2072,12 +2072,12 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>NAO DECLARADOS</t>
+          <t>BRASIL</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>19/12/2022</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -2090,17 +2090,17 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>NEO ALVES MARTINS</t>
+          <t>SANTOS DUMONT</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2275</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>LOJA  05</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>87013060</t>
+          <t>87013050</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -2127,19 +2127,19 @@
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>RUUS40@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>16.653.244/0001-03</t>
+          <t>43.157.853/0001-44</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16653244</t>
+          <t>43157853</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>STATUS ESTHETIC HAIR LTDA</t>
+          <t>JOICE LOANA OLIANO DOS SANTOS CABELEREIRA LTDA</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>STATUS BEAUTY SALON</t>
+          <t>STUDIO MIRIAN OLIANO</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2188,11 +2188,11 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>DEMAIS</t>
+          <t>MICRO EMPRESA</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>02/08/2012</t>
+          <t>17/08/2021</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>02/08/2012</t>
+          <t>17/08/2021</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -2243,27 +2243,27 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>DOUTOR LUIZ TEIXEIRA MENDES</t>
+          <t>BRASIL</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1616</t>
+          <t>2655</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>LOJA  A3</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>ZONA 05</t>
+          <t>ZONA 03</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>87015001</t>
+          <t>87050000</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -2280,19 +2280,19 @@
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>ESCRITORIOAMARAES@UOL.COM.BR</t>
+          <t>ITAGESTAOCONTABIL@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30.554.913/0001-10</t>
+          <t>11.532.289/0001-06</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>30554913</t>
+          <t>11532289</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>06</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2312,12 +2312,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ERICA ROSA HAIR LTDA</t>
+          <t>CAMARIM CABELEIREIROS LTDA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>CAMARIM CABELEIREIROS</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NAO</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5000</v>
+        <v>30000</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>25/05/2018</t>
+          <t>04/02/2010</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>25/05/2018</t>
+          <t>04/02/2010</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -2391,32 +2391,32 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>RUA</t>
+          <t>AVENIDA</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>ENRICO BRUNO PARDINI ZAMPONI</t>
+          <t>CERRO AZUL</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>1047</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>SLJ   SOBRELOJA</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>GALEAO</t>
+          <t>ZONA 02</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>87053288</t>
+          <t>87010000</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -2433,19 +2433,19 @@
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>ERICAPROSA10@GMAIL.COM</t>
+          <t>Nao informado</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>24.680.078/0001-62</t>
+          <t>32.803.268/0001-58</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>24680078</t>
+          <t>32803268</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>58</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2465,12 +2465,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>DEPILACAO DEPIL BELLA LTDA</t>
+          <t>SOUZA, RODRIGUES E SILVA LTDA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>MADAME LOLA</t>
+          <t>STUDIO EFFE MARINGA</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2480,21 +2480,21 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>NAO</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>NAO</t>
-        </is>
-      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>28/04/2016</t>
+          <t>18/02/2019</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>28/04/2016</t>
+          <t>18/02/2019</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -2549,27 +2549,27 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>BRASIL</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>3004</t>
+          <t>3265</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>SALA  02</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>ZONA 07</t>
+          <t>ZONA 01</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>87030120</t>
+          <t>87013000</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -2586,19 +2586,19 @@
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>ANTONIO.BRUNO@TERRA.COM.BR</t>
+          <t>Nao informado</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>43.868.178/0001-61</t>
+          <t>21.872.180/0001-71</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>43868178</t>
+          <t>21872180</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>71</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2618,12 +2618,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SAINT PATRICKS BARBEARIA CLUBE LTDA</t>
+          <t>CHEIA DE CHARME MARINGA LTDA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>SAINT PATRICKS BARBER CLUB</t>
+          <t>CHEIA DE CHARME</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NAO</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>14/10/2021</t>
+          <t>10/02/2015</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -2675,7 +2675,7 @@
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>14/10/2021</t>
+          <t>10/02/2015</t>
         </is>
       </c>
       <c r="V15" t="n">
@@ -2697,22 +2697,22 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>RUA</t>
+          <t>AVENIDA</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>SANTOS DUMONT</t>
+          <t>HERVAL</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>3054</t>
+          <t>490</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>SALA  03 E 04</t>
+          <t>SLJ SALA 01;</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>87015150</t>
+          <t>87013110</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -2735,23 +2735,31 @@
           <t>MARINGA</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>30282545.0</t>
+        </is>
+      </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>STPATRICKSBARBERCLUB@GMAIL.COM</t>
+          <t>PATRICIA@ESCRITORIOMILLENIUM.COM.BR</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20.109.887/0001-68</t>
+          <t>44.762.237/0001-85</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20109887</t>
+          <t>44762237</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2761,7 +2769,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2771,7 +2779,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>PLB HAIR LTDA</t>
+          <t>JOYCE RODRIGUES BELEZA E ESTETICA LTDA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2800,7 +2808,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -2819,7 +2827,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>11/04/2014</t>
+          <t>06/01/2022</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -2828,7 +2836,7 @@
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -2842,7 +2850,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>11/04/2014</t>
+          <t>06/01/2022</t>
         </is>
       </c>
       <c r="V16" t="n">
@@ -2855,12 +2863,12 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>NOBREGA</t>
+          <t>HUMAITA</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>1.024</t>
+          <t>852</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2875,7 +2883,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>87014180</t>
+          <t>87014200</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -2892,19 +2900,19 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>EDUARDOPLENOCONSULTORIA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30.709.796/0001-17</t>
+          <t>51.219.125/0001-48</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>30709796</t>
+          <t>51219125</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2914,7 +2922,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2924,12 +2932,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>W. P. DA SILVA BARBEARIA LTDA</t>
+          <t>B. E. E. MARINGA LTDA</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>WILL BARBEARIA</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2953,7 +2961,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>98000</v>
+        <v>100000</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -2972,7 +2980,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>15/06/2018</t>
+          <t>28/06/2023</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -2990,12 +2998,12 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>NAO DECLARADOS</t>
+          <t>BRASIL</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>15/06/2018</t>
+          <t>28/06/2023</t>
         </is>
       </c>
       <c r="V17" t="n">
@@ -3008,12 +3016,12 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>BRASIL</t>
+          <t>TIRADENTES</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>4886</t>
+          <t>1180</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -3023,12 +3031,12 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>ZONA 04</t>
+          <t>ZONA 01</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>87014070</t>
+          <t>87013260</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -3045,19 +3053,19 @@
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>WILLIANBARBERSHOP@GMAIL.COM</t>
+          <t>ESTETICAMARINGA.GERENCIA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>47.585.067/0001-07</t>
+          <t>32.348.958/0001-64</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>47585067</t>
+          <t>32348958</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3067,7 +3075,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>64</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3077,12 +3085,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>BONILHA &amp; SEGES LTDA</t>
+          <t>MARILHA MIRANDA - O TERRITORIO DAS DIVAS LTDA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>BARBEARIA RIVELINO FUTEBOL CLUBE</t>
+          <t>MARILHA MIRANDA</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3106,11 +3114,11 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>EMPRESA DE PEQUENO PORTE</t>
+          <t>MICRO EMPRESA</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -3125,7 +3133,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>16/08/2022</t>
+          <t>03/01/2019</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -3134,7 +3142,7 @@
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -3143,12 +3151,12 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>BRASIL</t>
+          <t>NAO DECLARADOS</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>16/08/2022</t>
+          <t>03/01/2019</t>
         </is>
       </c>
       <c r="V18" t="n">
@@ -3161,27 +3169,27 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>ADVOGADO HORÁCIO RACCANELLO FILHO</t>
+          <t>JOSE ALVES NENDO</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>5545</t>
+          <t>208</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>LOJA  03</t>
+          <t>SALA  02                  CONJ  SAO SILVESTRE</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>ZONA 07</t>
+          <t>GLEBA RIBEIRAO PINGUIM</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>87020035</t>
+          <t>87045260</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -3198,19 +3206,19 @@
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>WWW.SEGES@GMAIL.COM</t>
+          <t>MARILHAMIRANDAPAZ@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30.809.468/0001-92</t>
+          <t>45.746.118/0001-00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>30809468</t>
+          <t>45746118</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3220,7 +3228,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3230,7 +3238,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>STUDIO SS MAKE UP HAIR LTDA</t>
+          <t>EAR BARBER LTDA</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -3259,7 +3267,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -3278,7 +3286,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>28/06/2018</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -3287,7 +3295,7 @@
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -3296,12 +3304,12 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>NAO DECLARADOS</t>
+          <t>BRASIL</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>28/06/2018</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="V19" t="n">
@@ -3309,32 +3317,32 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>RUA</t>
+          <t>AVENIDA</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>SANTOS DUMONT</t>
+          <t>COMENDADOR AMORIM PEDROSA MOLEIRINHO</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>1292</t>
+          <t>2309</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>SALA  03</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>ZONA 03</t>
+          <t>VILA EMÍLIA</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>87050100</t>
+          <t>87010190</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -3351,19 +3359,19 @@
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>MARLIFRANCA@HOTMAIL.COM</t>
+          <t>SOCIETARIO@ASSECONCONTABILIDADE.COM.BR</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>44.023.400/0001-98</t>
+          <t>26.882.648/0001-22</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>44023400</t>
+          <t>26882648</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3373,7 +3381,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -3383,12 +3391,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>BRASILINO E BRASILINO SALAO DE BELEZA LTDA</t>
+          <t>CASMURRO BARBEARIA LTDA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>STUDIO EFFE</t>
+          <t>CASMURRO BARBEARIA</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3412,7 +3420,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -3431,7 +3439,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>26/10/2021</t>
+          <t>17/01/2017</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -3454,7 +3462,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>26/10/2021</t>
+          <t>17/01/2017</t>
         </is>
       </c>
       <c r="V20" t="n">
@@ -3467,27 +3475,27 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>ADVOGADO HORACIO RACCANELLO FILHO</t>
+          <t>XV DE NOVEMBRO</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>5620</t>
+          <t>169</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>LOJA  01</t>
+          <t>SALA  A</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>ZONA 07</t>
+          <t>ZONA 01</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>87020035</t>
+          <t>87013230</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -3504,19 +3512,19 @@
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>FABSOUZA17@HOTMAIL.COM</t>
+          <t>Nao informado</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>42.700.263/0001-53</t>
+          <t>17.710.705/0001-03</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>42700263</t>
+          <t>17710705</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3526,7 +3534,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>03</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -3536,12 +3544,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>LUNNA ESMALTERIA E ESTETICA LTDA</t>
+          <t>JULIO CESAR MARTINS RODRIGUES ESTETICA LTDA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>LUNNA</t>
+          <t>DPILL LINE</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3565,7 +3573,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -3584,7 +3592,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>13/07/2021</t>
+          <t>07/03/2013</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -3607,7 +3615,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>13/07/2021</t>
+          <t>07/03/2013</t>
         </is>
       </c>
       <c r="V21" t="n">
@@ -3620,27 +3628,27 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>LAGUNA</t>
+          <t>DONA SOPHIA RASGULAEFF</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2554</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>LOJA  04</t>
+          <t>SALA 02</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>ZONA 01</t>
+          <t>JARDIM OASIS</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>87050251</t>
+          <t>87043010</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -3653,31 +3661,23 @@
           <t>MARINGA</t>
         </is>
       </c>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>30152302.0</t>
-        </is>
-      </c>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>ESCMARIALVA@HOTMAIL.COM</t>
+          <t>juliocesar.200@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>46.513.010/0001-21</t>
+          <t>23.220.329/0001-63</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>46513010</t>
+          <t>23220329</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>63</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>JM ESPACO DE BELEZA LTDA</t>
+          <t>GF STUDIO SALAO DE BELEZA LTDA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>JM ESPACO DE BELEZA</t>
+          <t>GF</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3726,7 +3726,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>24/05/2022</t>
+          <t>04/09/2015</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -3763,12 +3763,12 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>BRASIL</t>
+          <t>NAO DECLARADOS</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>24/05/2022</t>
+          <t>04/09/2015</t>
         </is>
       </c>
       <c r="V22" t="n">
@@ -3781,27 +3781,27 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>PEDRO TAQUES</t>
+          <t>TIRADENTES</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2507</t>
+          <t>1194</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>SALA  TERREA  CENTRO</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>JARDIM ALVORADA</t>
+          <t>ZONA 01</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>87033000</t>
+          <t>87013260</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
@@ -3818,19 +3818,19 @@
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>RAFAELCONTABILIDADE4@GMAIL.COM</t>
+          <t>Nao informado</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>32.551.718/0001-62</t>
+          <t>48.253.775/0001-03</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>32551718</t>
+          <t>48253775</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>03</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3850,12 +3850,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>BALANI, HIGUCHI E SILVA LTDA</t>
+          <t>INSTITUTO DE BELEZA CLAUS ALVES LTDA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>FRIDA SALON</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>28/11/2022</t>
+          <t>11/10/2022</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -3916,12 +3916,12 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>NAO DECLARADOS</t>
+          <t>BRASIL</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>24/01/2019</t>
+          <t>11/10/2022</t>
         </is>
       </c>
       <c r="V23" t="n">
@@ -3934,27 +3934,27 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>NEO ALVES MARTINS</t>
+          <t>PARANAGUÁ</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2113</t>
+          <t>249</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>SALA  B</t>
+          <t>LOJA  02</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>ZONA 01</t>
+          <t>ZONA 07</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>87013060</t>
+          <t>87020190</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -3971,19 +3971,19 @@
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>ANACLAUDIABALLANI@GMAIL.COM</t>
+          <t>ADM@CONTIMAR.COM.BR</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>24.398.383/0001-66</t>
+          <t>26.835.569/0001-60</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>24398383</t>
+          <t>26835569</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4003,12 +4003,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>GSM BARBEARIA LTDA</t>
+          <t>MATTOS CABELEIREIROS LTDA</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>BARBEARIA MAGALHAES</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>5000</v>
+        <v>30000</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>16/03/2016</t>
+          <t>10/01/2017</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>16/03/2016</t>
+          <t>10/01/2017</t>
         </is>
       </c>
       <c r="V24" t="n">
@@ -4087,27 +4087,27 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>MAUA</t>
+          <t>TAMANDARE</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2475</t>
+          <t>655</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>LOJA 01</t>
+          <t>SALA  15 - 17 E 19        COND  VIA ESTACAO</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>ZONA 03</t>
+          <t>ZONA 01</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>87050020</t>
+          <t>87013210</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -4124,19 +4124,19 @@
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>GLAUBER_MAGALHAES@OUTLOOK.COM</t>
+          <t>FABIO_SCOPEL@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>34.215.594/0001-70</t>
+          <t>49.649.660/0001-97</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>34215594</t>
+          <t>49649660</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>97</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -4156,12 +4156,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>VIOTTO NAILS LTDA</t>
+          <t>RENATO BOSCARDIM CABELEREIRO LTDA</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>VIOTTO NAILS</t>
+          <t>RENATO BOSCARDIM CABELEIREIRO LTDA</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -4185,7 +4185,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>15/07/2019</t>
+          <t>17/02/2023</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -4213,7 +4213,7 @@
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -4222,12 +4222,12 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>NAO DECLARADOS</t>
+          <t>BRASIL</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>15/07/2019</t>
+          <t>17/02/2023</t>
         </is>
       </c>
       <c r="V25" t="n">
@@ -4240,27 +4240,27 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>LUIS CARLOS PRESTES</t>
+          <t>AGOSTINHO DOS SANTOS</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>981</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>SETOR FRENTE              CASA  A</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>JARDIM SAO SILVESTRE</t>
+          <t>GLEBA RIBEIRÃO PINGUIN</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>87055430</t>
+          <t>87053290</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
@@ -4277,19 +4277,19 @@
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>STEFANIEVIOTTO60@GMAIL.COM</t>
+          <t>RENATO.BOSS@ICLOUD.COM</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>35.393.898/0001-90</t>
+          <t>50.444.263/0001-68</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>35393898</t>
+          <t>50444263</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>68</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -4309,12 +4309,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>FGITW BARBEARIA LTDA</t>
+          <t>CONCEPT HAIR SALAO DE BELEZA LTDA</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>SIR MUSTACHE BARBEARIA PUB</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -4338,7 +4338,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>04/11/2019</t>
+          <t>25/04/2023</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="R26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -4375,12 +4375,12 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>NAO DECLARADOS</t>
+          <t>BRASIL</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>04/11/2019</t>
+          <t>25/04/2023</t>
         </is>
       </c>
       <c r="V26" t="n">
@@ -4393,27 +4393,27 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>HUMAITA</t>
+          <t>JOÃO PAULINO VIEIRA FILHO</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>45</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>SALA  01 E 02</t>
+          <t>LOJA  06</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>ZONA 04</t>
+          <t>ZONA 01</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>87014200</t>
+          <t>87020015</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -4430,19 +4430,19 @@
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>ORGANIZACAO.MARCELO@HOTMAIL.COM</t>
+          <t>CONCEPTHAIRMGA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>23.328.656/0001-33</t>
+          <t>31.099.375/0001-84</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>23328656</t>
+          <t>31099375</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>84</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -4462,12 +4462,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>PAISCA ESPACO DA BELEZA LTDA</t>
+          <t>DAIANE ALVES ESTEVAO VIEIRA  LTDA</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>ESPACO PAISCA</t>
+          <t>ESPACO DAS PODEROSAS</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -4491,7 +4491,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>23/09/2015</t>
+          <t>02/08/2018</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -4519,7 +4519,7 @@
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>23/09/2015</t>
+          <t>02/08/2018</t>
         </is>
       </c>
       <c r="V27" t="n">
@@ -4541,32 +4541,32 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>AVENIDA</t>
+          <t>RUA</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>PAISSANDU</t>
+          <t>CAXAMBU</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>216</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>TERREO</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>ZONA 03</t>
+          <t>VILA SANTO ANTONIO</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>87050130</t>
+          <t>87030340</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -4583,19 +4583,19 @@
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>RIELCONTABILIDADE@GMAIL.COM</t>
+          <t>DA-DAI2008@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>43.157.853/0001-44</t>
+          <t>34.215.594/0001-70</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>43157853</t>
+          <t>34215594</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -4615,12 +4615,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>JOICE LOANA OLIANO DOS SANTOS CABELEREIRA LTDA</t>
+          <t>VIOTTO NAILS LTDA</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>STUDIO MIRIAN OLIANO</t>
+          <t>VIOTTO NAILS</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -4644,7 +4644,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>17/08/2021</t>
+          <t>15/07/2019</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="R28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>17/08/2021</t>
+          <t>15/07/2019</t>
         </is>
       </c>
       <c r="V28" t="n">
@@ -4694,32 +4694,32 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>AVENIDA</t>
+          <t>RUA</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>BRASIL</t>
+          <t>LUIS CARLOS PRESTES</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2655</t>
+          <t>54</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>LOJA  A3</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>ZONA 03</t>
+          <t>JARDIM SAO SILVESTRE</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>87050000</t>
+          <t>87055430</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -4736,19 +4736,19 @@
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>ITAGESTAOCONTABIL@GMAIL.COM</t>
+          <t>STEFANIEVIOTTO60@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>11.222.870/0001-21</t>
+          <t>13.081.582/0001-20</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>11222870</t>
+          <t>13081582</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ROSA &amp; BORBOREMA LTDA</t>
+          <t>E. CASTALDELLI SILVA LTDA</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>01/10/2009</t>
+          <t>21/12/2010</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>01/10/2009</t>
+          <t>21/12/2010</t>
         </is>
       </c>
       <c r="V29" t="n">
@@ -4847,17 +4847,17 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>AVENIDA</t>
+          <t>RUA</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>SAO PAULO</t>
+          <t>SANTA JOAQUINA DE VEDRUNA</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>1.260</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -4867,12 +4867,12 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>ZONA 01</t>
+          <t>ZONA 05</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>87013040</t>
+          <t>87015150</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
@@ -4885,23 +4885,31 @@
           <t>MARINGA</t>
         </is>
       </c>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>32266461</t>
+        </is>
+      </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>SALAONEISILVA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>27.858.361/0001-20</t>
+          <t>11.075.159/0001-91</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>27858361</t>
+          <t>11075159</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4911,7 +4919,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>91</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -4921,12 +4929,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>O JOAQUIM PENTEADOS LTDA</t>
+          <t>MHS SALAO DE BELEZA LTDA</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>JOAQUIM FERREIRA</t>
+          <t>ELLEN HAIR</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -4950,11 +4958,11 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>MICRO EMPRESA</t>
+          <t>EMPRESA DE PEQUENO PORTE</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -4969,7 +4977,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>31/05/2017</t>
+          <t>04/08/2009</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -4978,7 +4986,7 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -4992,7 +5000,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>31/05/2017</t>
+          <t>04/08/2009</t>
         </is>
       </c>
       <c r="V30" t="n">
@@ -5000,17 +5008,17 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>RUA</t>
+          <t>AVENIDA</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>ANTONIO BRAMBILLA</t>
+          <t>ADV. HORACIO RACCANELLO FILHO</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>5515</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -5020,12 +5028,12 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>JARDIM PARIS</t>
+          <t>ZONA 01</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>87083400</t>
+          <t>87013100</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
@@ -5042,19 +5050,19 @@
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>PENTEADOSJOAQUIMFERREIRA@GMAIL.COM</t>
+          <t>Nao informado</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>43.735.529/0001-66</t>
+          <t>31.611.871/0001-75</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>43735529</t>
+          <t>31611871</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5064,7 +5072,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>75</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -5074,12 +5082,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>V &amp; J GUILHEN LTDA</t>
+          <t>BARBEARIA SR. JOSE LTDA</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>RUBIO THURE BELEZA ESTETICA</t>
+          <t>BARBEARIA SR. JOSE</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -5103,7 +5111,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>20000</v>
+        <v>180000</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -5122,7 +5130,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>26/09/2018</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -5131,7 +5139,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -5145,7 +5153,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>26/09/2018</t>
         </is>
       </c>
       <c r="V31" t="n">
@@ -5153,32 +5161,32 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>AVENIDA</t>
+          <t>RUA</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>RIO BRANCO</t>
+          <t>RAIMUNDO CORREIA</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>276</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>SALA  04</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>ZONA 04</t>
+          <t>ZONA 06</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>87014140</t>
+          <t>87015400</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
@@ -5195,19 +5203,19 @@
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>JULIANO.SGUILHEN@HOTMAIL.COM</t>
+          <t>CONTATOBRISCE@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>27.281.947/0001-74</t>
+          <t>13.428.716/0001-36</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>27281947</t>
+          <t>13428716</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5217,7 +5225,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -5227,12 +5235,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>FOOT CARE MARINGA BELEZA E PODOLOGIA LTDA</t>
+          <t>L R P FREITAS &amp; CIA LTDA</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>FOOT CARE MARINGA</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -5256,7 +5264,7 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -5275,7 +5283,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>13/03/2017</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -5298,7 +5306,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>13/03/2017</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="V32" t="n">
@@ -5311,27 +5319,27 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>HUMAITA</t>
+          <t>XV DE NOVEMBRO</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>858</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>SALA  5</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>ZONA 04</t>
+          <t>ZONA 01</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>87014200</t>
+          <t>87013230</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
@@ -5355,12 +5363,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>47.618.875/0001-15</t>
+          <t>24.634.029/0001-93</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>47618875</t>
+          <t>24634029</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5370,7 +5378,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>93</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -5380,7 +5388,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>YFF MICROPIGMENTACAO LTDA</t>
+          <t>EQUIPE JEFFERSON OLIVEIRA CABELEIREIROS LTDA</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -5409,7 +5417,7 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -5428,7 +5436,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>10/02/2022</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -5446,12 +5454,12 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>BRASIL</t>
+          <t>NAO DECLARADOS</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>20/04/2016</t>
         </is>
       </c>
       <c r="V33" t="n">
@@ -5459,32 +5467,32 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>AVENIDA</t>
+          <t>RUA</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>TIRADENTES</t>
+          <t>PEDRO SANCHES</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>414</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>SALA  02</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>ZONA 02</t>
+          <t>ZONA 04</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>87013340</t>
+          <t>87014060</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
@@ -5501,19 +5509,19 @@
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>YASMINFERRACINI@HOTMAIL.COM</t>
+          <t>Nao informado</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>48.764.663/0001-09</t>
+          <t>22.790.958/0001-66</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>48764663</t>
+          <t>22790958</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5523,7 +5531,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>66</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -5533,7 +5541,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>VILSON GUERRA ESPECO DA BELEZA LTDA</t>
+          <t>BARROCA SALAO E ESTETICA LTDA</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -5548,7 +5556,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NAO</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -5562,7 +5570,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -5581,7 +5589,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>30/11/2022</t>
+          <t>06/07/2015</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -5599,12 +5607,12 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>BRASIL</t>
+          <t>NAO DECLARADOS</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>30/11/2022</t>
+          <t>06/07/2015</t>
         </is>
       </c>
       <c r="V34" t="n">
@@ -5612,17 +5620,17 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>AVENIDA</t>
+          <t>RUA</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>JOÃO PAULINO VIEIRA FILHO</t>
+          <t>MARECHAL FLORIANO PEIXOTO</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>1352</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -5632,12 +5640,12 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>ZONA 01</t>
+          <t>ZONA 07</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>87020015</t>
+          <t>87030030</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
@@ -5654,19 +5662,19 @@
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>SOLA@ECOBRASCONTABILIDADE.COM.BR</t>
+          <t>Nao informado</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>45.442.512/0001-46</t>
+          <t>30.040.657/0001-43</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>45442512</t>
+          <t>30040657</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5676,7 +5684,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -5686,12 +5694,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>SANDRA SERVICOS DE BELEZA LTDA</t>
+          <t>RIVELINO BARBEARIA E ESTETICA MASCULINA LTDA</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>BARBEARIA RIVELINO FUTEBOL CLUBE</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -5715,11 +5723,11 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>5000</v>
+        <v>97000</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>MICRO EMPRESA</t>
+          <t>EMPRESA DE PEQUENO PORTE</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -5734,7 +5742,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>24/02/2022</t>
+          <t>26/03/2018</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -5743,7 +5751,7 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -5752,12 +5760,12 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>BRASIL</t>
+          <t>NAO DECLARADOS</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>24/02/2022</t>
+          <t>26/03/2018</t>
         </is>
       </c>
       <c r="V35" t="n">
@@ -5765,32 +5773,32 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>RUA</t>
+          <t>AVENIDA</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>OSVALDO CRUZ</t>
+          <t>HORACIO RACCANELLO FILHO,ADVOGADO</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>6326</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>APT   308</t>
+          <t>PAVMTO02                  SALA  06                  SETOR 52                  EDIF  TORRE GEMEA</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>ZONA 07</t>
+          <t>ZONA 01</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>87020200</t>
+          <t>87020035</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
@@ -5807,19 +5815,19 @@
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>SANDRAUTINOI@GMAIL.COM</t>
+          <t>BARBEARIAMARIGA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>17.710.705/0001-03</t>
+          <t>33.871.082/0001-07</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>17710705</t>
+          <t>33871082</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5829,7 +5837,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>07</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -5839,12 +5847,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>JULIO CESAR MARTINS RODRIGUES ESTETICA LTDA</t>
+          <t>NAILS CLUB ESMALTERIA LTDA</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>DPILL LINE</t>
+          <t>NAILS CLUB ESMALTERIA</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -5868,7 +5876,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>5000</v>
+        <v>60000</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -5887,7 +5895,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>07/03/2013</t>
+          <t>09/06/2019</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -5910,7 +5918,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>07/03/2013</t>
+          <t>09/06/2019</t>
         </is>
       </c>
       <c r="V36" t="n">
@@ -5923,27 +5931,27 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>DONA SOPHIA RASGULAEFF</t>
+          <t>PEDRO TAQUES</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2554</t>
+          <t>294</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>SALA 02</t>
+          <t>TERREO SALA 28</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>JARDIM OASIS</t>
+          <t>ZONA ARMAZEM</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>87043010</t>
+          <t>87030008</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
@@ -5960,19 +5968,19 @@
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>juliocesar.200@hotmail.com</t>
+          <t>abylacremoneis@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>25.330.272/0001-80</t>
+          <t>42.888.355/0001-09</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>25330272</t>
+          <t>42888355</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5982,7 +5990,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>09</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -5992,7 +6000,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>BARRETO S BARBEARIA CLUB LTDA</t>
+          <t>VANZELA CENTRO DE TRATAMENTO CAPILAR LTDA</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -6021,11 +6029,11 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>MICRO EMPRESA</t>
+          <t>EMPRESA DE PEQUENO PORTE</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6040,7 +6048,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>27/07/2021</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -6063,7 +6071,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>27/07/2021</t>
         </is>
       </c>
       <c r="V37" t="n">
@@ -6076,27 +6084,27 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>DAS PALMEIRAS</t>
+          <t>HUMAITA</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>804</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>SALA  01 - CONSULTORIO 01</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>PARQUE PALMEIRAS</t>
+          <t>ZONA 04</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>87023160</t>
+          <t>87014200</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
@@ -6113,19 +6121,19 @@
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>WAGNERAPB@HOTMAIL.COM</t>
+          <t>IGOR@OSSUCCI.COM.BR</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>31.889.052/0001-94</t>
+          <t>31.537.425/0001-68</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>31889052</t>
+          <t>31537425</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -6135,7 +6143,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>68</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -6145,12 +6153,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>BARBEARIA RETRO LTDA</t>
+          <t>JOAO PEDRO CARREGOSA ANDRADE COSTA LTDA</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>BARBEARIA RETROFIT - UNIDADE 3</t>
+          <t>JC VINTAGE CLUB</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -6193,7 +6201,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>29/10/2018</t>
+          <t>18/09/2018</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -6202,7 +6210,7 @@
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -6216,7 +6224,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>29/10/2018</t>
+          <t>18/09/2018</t>
         </is>
       </c>
       <c r="V38" t="n">
@@ -6224,32 +6232,32 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>AVENIDA</t>
+          <t>RUA</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>ARQUITETO NILDO RIBEIRO DA ROCHA</t>
+          <t>TABAETE</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>4561</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>SALA  01</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>JARDIM HIGIENOPOLIS</t>
+          <t>JARDIM TABAETE</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>87060390</t>
+          <t>87005140</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
@@ -6266,19 +6274,19 @@
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>LEANDROMACRI@LIVE.COM</t>
+          <t>jp_jpandrade@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>47.637.067/0001-03</t>
+          <t>26.080.590/0001-01</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>47637067</t>
+          <t>26080590</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -6288,7 +6296,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -6298,7 +6306,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>GR GALLI LTDA</t>
+          <t>SENHOR CALIXTO BARBEARIA LTDA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -6311,15 +6319,23 @@
           <t>Sociedade Empresária Limitada</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>NAO</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -6338,7 +6354,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>19/08/2022</t>
+          <t>01/09/2016</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -6347,7 +6363,7 @@
         </is>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -6356,12 +6372,12 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>BRASIL</t>
+          <t>NAO DECLARADOS</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>19/08/2022</t>
+          <t>01/09/2016</t>
         </is>
       </c>
       <c r="V39" t="n">
@@ -6374,27 +6390,27 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>PRUDENTE DE MORAIS</t>
+          <t>DOUTOR GASTAO VIDIGAL</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>992</t>
+          <t>1934</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>SALA  02</t>
+          <t>SALA  01</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>ZONA 07</t>
+          <t>ZONA 08</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>87020010</t>
+          <t>87050440</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
@@ -6411,19 +6427,19 @@
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>RHAYDGALLI@GMAIL.COM</t>
+          <t>Nao informado</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>24.699.192/0001-34</t>
+          <t>24.398.383/0001-66</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>24699192</t>
+          <t>24398383</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -6433,7 +6449,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>66</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -6443,12 +6459,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>STUDIO BELEZA VIP LTDA</t>
+          <t>GSM BARBEARIA LTDA</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>STUDIO BELEZA VIP</t>
+          <t>BARBEARIA MAGALHAES</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -6472,7 +6488,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>80000</v>
+        <v>5000</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -6491,7 +6507,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>02/05/2016</t>
+          <t>16/03/2016</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -6514,7 +6530,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>02/05/2016</t>
+          <t>16/03/2016</t>
         </is>
       </c>
       <c r="V40" t="n">
@@ -6522,32 +6538,32 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>RUA</t>
+          <t>AVENIDA</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>DOUTOR SAULO PORTO VIRMOND</t>
+          <t>MAUA</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>1031</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>SALA 01</t>
+          <t>LOJA 01</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>CHACARA PAULISTA</t>
+          <t>ZONA 03</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>87005090</t>
+          <t>87050020</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
@@ -6564,19 +6580,19 @@
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>nathane.de.sa@gmail.com</t>
+          <t>GLAUBER_MAGALHAES@OUTLOOK.COM</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>15.126.007/0001-21</t>
+          <t>18.433.597/0001-23</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>15126007</t>
+          <t>18433597</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -6586,7 +6602,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -6596,12 +6612,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>EF DE CASTRO - SALAO DE BELEZA LTDA</t>
+          <t>BEAUTY HOME STUDIO DE BELEZA LTDA</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>SALAO MODELLE ELEZIER FREITAS</t>
+          <t>BEAUTY HOME</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -6625,7 +6641,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -6644,7 +6660,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>28/02/2012</t>
+          <t>05/07/2013</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -6653,7 +6669,7 @@
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -6667,7 +6683,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>28/02/2012</t>
+          <t>05/07/2013</t>
         </is>
       </c>
       <c r="V41" t="n">
@@ -6675,17 +6691,17 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>AVENIDA</t>
+          <t>RUA</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>PEDRO TAQUES</t>
+          <t>BRAGANCA</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>1013-A</t>
+          <t>717</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -6700,7 +6716,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>87030000</t>
+          <t>87020220</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
@@ -6717,19 +6733,19 @@
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>ALINEGOMES306@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>31.611.871/0001-75</t>
+          <t>45.941.711/0001-07</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>31611871</t>
+          <t>45941711</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -6739,7 +6755,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>07</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -6749,12 +6765,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>BARBEARIA SR. JOSE LTDA</t>
+          <t>STUDIO EXCELLENCE ALMEIDA LTDA</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>BARBEARIA SR. JOSE</t>
+          <t>STUDIO EXCELLENCE</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -6778,7 +6794,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -6797,7 +6813,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>26/09/2018</t>
+          <t>07/04/2022</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -6815,12 +6831,12 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>NAO DECLARADOS</t>
+          <t>BRASIL</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>26/09/2018</t>
+          <t>07/04/2022</t>
         </is>
       </c>
       <c r="V42" t="n">
@@ -6828,32 +6844,32 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>RUA</t>
+          <t>AVENIDA</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>RAIMUNDO CORREIA</t>
+          <t>TUIUTI</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>2943</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>SALA  01</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>ZONA 06</t>
+          <t>JARDIM PINHEIROS</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>87015400</t>
+          <t>87043629</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
@@ -6870,44 +6886,44 @@
       <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>CONTATOBRISCE@GMAIL.COM</t>
+          <t>Nao informado</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>29.615.441/0001-80</t>
+          <t>29.937.394/0003-52</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>29615441</t>
+          <t>29937394</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>0003</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MATRIZ</t>
+          <t>FILIAL</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>GUSTAVO LOPES BARBEARIA LTDA</t>
+          <t>V. MENARIM HUMAMOTO SALAO DE BELEZA LTDA</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>GUSTAVO BARBEIRO</t>
+          <t>ESTUDIO DA TESOURA CATUAI MARINGA</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -6917,7 +6933,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NAO</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6931,7 +6947,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>25000</v>
+        <v>96000</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -6950,7 +6966,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>05/02/2018</t>
+          <t>16/11/2021</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -6973,7 +6989,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>05/02/2018</t>
+          <t>16/11/2021</t>
         </is>
       </c>
       <c r="V43" t="n">
@@ -6986,27 +7002,27 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>LAGUNA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>9161</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>SALA  05</t>
+          <t>LOJA  204</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>ZONA 03</t>
+          <t>GLEBA PATRIMONIO MARINGA</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>87050260</t>
+          <t>87070000</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
@@ -7023,19 +7039,19 @@
       <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>GUSTAVOLOPES_2016@HOTMAIL.COM</t>
+          <t>ESCRITORIOMERCOSUL@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>40.817.253/0001-77</t>
+          <t>46.507.326/0001-00</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>40817253</t>
+          <t>46507326</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -7045,7 +7061,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -7055,12 +7071,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>CZEZACKI CABELEIREIROS LTDA</t>
+          <t>HAIR FIT MARINGA BELEZA E ESTETICA LTDA</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>HAIT FIT</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -7084,7 +7100,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -7103,7 +7119,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>11/02/2021</t>
+          <t>23/05/2022</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -7112,7 +7128,7 @@
         </is>
       </c>
       <c r="R44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -7121,12 +7137,12 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>NAO DECLARADOS</t>
+          <t>BRASIL</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>11/02/2021</t>
+          <t>23/05/2022</t>
         </is>
       </c>
       <c r="V44" t="n">
@@ -7134,17 +7150,17 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>RUA</t>
+          <t>AVENIDA</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>JAIR DO COUTO COSTA</t>
+          <t>TUIUTI</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>710</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -7154,12 +7170,12 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>RECANTO DOS MAGNATAS</t>
+          <t>VILA MORANGUEIRA</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>87060625</t>
+          <t>87040360</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
@@ -7176,19 +7192,19 @@
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>LETYCZK@OUTLOOK.COM</t>
+          <t>MARLON@RAZAOSERVICOS.COM.BR</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>33.734.968/0001-09</t>
+          <t>12.300.492/0001-10</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>33734968</t>
+          <t>12300492</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -7198,7 +7214,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -7208,12 +7224,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>TERRAS CLUB BARBEARIA E ARTIGOS DO VESTUARIO LTDA</t>
+          <t>INFINITY STUDIO HAIR CABELO &amp; TATOO LTDA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>TERRAS CLUB</t>
+          <t>INFINITY STUDIO HAIR</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -7221,23 +7237,15 @@
           <t>Sociedade Empresária Limitada</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>NAO</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -7256,7 +7264,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>27/05/2019</t>
+          <t>26/07/2010</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -7265,7 +7273,7 @@
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -7279,7 +7287,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>27/05/2019</t>
+          <t>26/07/2010</t>
         </is>
       </c>
       <c r="V45" t="n">
@@ -7287,32 +7295,32 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>AVENIDA</t>
+          <t>RUA</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>SAO PAULO</t>
+          <t>NEO ALVES MARTINS</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2634</t>
+          <t>2113</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>SALA  B</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>VILA BOSQUE</t>
+          <t>ZONA 01</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>87005040</t>
+          <t>87013060</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
@@ -7329,19 +7337,19 @@
       <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>MATHEUSTERRABARBER@GMAIL.COM</t>
+          <t>INFINITYSTUDIOHAIR@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>17.274.626/0001-99</t>
+          <t>19.427.911/0001-28</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>17274626</t>
+          <t>19427911</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -7351,7 +7359,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -7361,12 +7369,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>E. LIRA INOVE LTDA.</t>
+          <t>JC VINTAGE LTDA</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>ELIANE LIRA CABELEIREIROS</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -7390,7 +7398,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1000</v>
+        <v>70000</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -7409,7 +7417,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>04/12/2012</t>
+          <t>04/11/2022</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -7418,7 +7426,7 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -7432,7 +7440,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>04/12/2012</t>
+          <t>05/12/2013</t>
         </is>
       </c>
       <c r="V46" t="n">
@@ -7440,32 +7448,32 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>RUA</t>
+          <t>AVENIDA</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>SAO JOAO</t>
+          <t>MAUA</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>3094</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>SALA  1</t>
+          <t>ANEXO LOJA E - 09</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>ZONA 07</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>87030200</t>
+          <t>87013160</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
@@ -7482,19 +7490,19 @@
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>I9@I9.CNT.BR</t>
+          <t>escritoriocontroller@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>22.374.317/0001-20</t>
+          <t>23.626.802/0001-07</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>22374317</t>
+          <t>23626802</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -7504,7 +7512,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>07</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -7514,12 +7522,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ZIMMERMANN SALON LTDA</t>
+          <t>LARISSA MISSAO PODOLOGA LTDA</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>MAYKO ZIMMERMANN</t>
+          <t>LARISSA MAYARA MISSAO</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -7562,7 +7570,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>04/05/2015</t>
+          <t>09/11/2015</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -7585,7 +7593,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>04/05/2015</t>
+          <t>09/11/2015</t>
         </is>
       </c>
       <c r="V47" t="n">
@@ -7593,32 +7601,32 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>RUA</t>
+          <t>AVENIDA</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>POMBAL</t>
+          <t>SAO PAULO</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>1061</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>SALA 02</t>
+          <t>SALA  1014</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>ZONA 03</t>
+          <t>ZONA 01</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>87050140</t>
+          <t>87013040</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
@@ -7635,19 +7643,19 @@
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>CONTATOCONTABIL@PASTORELLI.CNT.BR</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>48.253.775/0001-03</t>
+          <t>24.680.078/0001-62</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>48253775</t>
+          <t>24680078</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -7657,7 +7665,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>62</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -7667,12 +7675,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>INSTITUTO DE BELEZA CLAUS ALVES LTDA</t>
+          <t>DEPILACAO DEPIL BELLA LTDA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>MADAME LOLA</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -7682,7 +7690,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NAO</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -7715,7 +7723,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>11/10/2022</t>
+          <t>28/04/2016</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -7724,7 +7732,7 @@
         </is>
       </c>
       <c r="R48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -7733,12 +7741,12 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>BRASIL</t>
+          <t>NAO DECLARADOS</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>11/10/2022</t>
+          <t>28/04/2016</t>
         </is>
       </c>
       <c r="V48" t="n">
@@ -7746,22 +7754,22 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>RUA</t>
+          <t>AVENIDA</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>PARANAGUÁ</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>3004</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>LOJA  02</t>
+          <t>SALA  02</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -7771,7 +7779,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>87020190</t>
+          <t>87030120</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
@@ -7788,19 +7796,19 @@
       <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>ADM@CONTIMAR.COM.BR</t>
+          <t>ANTONIO.BRUNO@TERRA.COM.BR</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>50.444.263/0001-68</t>
+          <t>27.281.947/0001-74</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>50444263</t>
+          <t>27281947</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -7810,7 +7818,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>74</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -7820,12 +7828,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CONCEPT HAIR SALAO DE BELEZA LTDA</t>
+          <t>FOOT CARE MARINGA BELEZA E PODOLOGIA LTDA</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>FOOT CARE MARINGA</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -7849,7 +7857,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -7868,7 +7876,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>25/04/2023</t>
+          <t>13/03/2017</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -7877,7 +7885,7 @@
         </is>
       </c>
       <c r="R49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -7886,12 +7894,12 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>BRASIL</t>
+          <t>NAO DECLARADOS</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>25/04/2023</t>
+          <t>13/03/2017</t>
         </is>
       </c>
       <c r="V49" t="n">
@@ -7904,27 +7912,27 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>JOÃO PAULINO VIEIRA FILHO</t>
+          <t>HUMAITA</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>495</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>LOJA  06</t>
+          <t>SALA  5</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>ZONA 01</t>
+          <t>ZONA 04</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>87020015</t>
+          <t>87014200</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
@@ -7941,19 +7949,19 @@
       <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>CONCEPTHAIRMGA@GMAIL.COM</t>
+          <t>Nao informado</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>45.941.711/0001-07</t>
+          <t>20.782.664/0001-67</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>45941711</t>
+          <t>20782664</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -7963,7 +7971,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>67</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -7973,12 +7981,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>STUDIO EXCELLENCE ALMEIDA LTDA</t>
+          <t>SARAH FORQUIM CONCEPT LTDA</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>STUDIO EXCELLENCE</t>
+          <t>SARAH FORQUIM CONCEPT</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -8021,7 +8029,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>07/04/2022</t>
+          <t>06/08/2014</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -8039,12 +8047,12 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>BRASIL</t>
+          <t>NAO DECLARADOS</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>07/04/2022</t>
+          <t>06/08/2014</t>
         </is>
       </c>
       <c r="V50" t="n">
@@ -8057,27 +8065,27 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>TUIUTI</t>
+          <t>NOBREGA</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2943</t>
+          <t>352</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>SALA  01</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>JARDIM PINHEIROS</t>
+          <t>ZONA 04</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>87043629</t>
+          <t>87014180</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
@@ -8094,19 +8102,19 @@
       <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>Nao informado</t>
+          <t>SARAHFORQUIMNASCIMENTO@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>23.626.802/0001-07</t>
+          <t>48.764.663/0001-09</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>23626802</t>
+          <t>48764663</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -8116,7 +8124,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>09</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -8126,12 +8134,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>LARISSA MISSAO PODOLOGA LTDA</t>
+          <t>VILSON GUERRA ESPECO DA BELEZA LTDA</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>LARISSA MAYARA MISSAO</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -8155,7 +8163,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -8174,7 +8182,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>09/11/2015</t>
+          <t>30/11/2022</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -8192,12 +8200,12 @@
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>NAO DECLARADOS</t>
+          <t>BRASIL</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>09/11/2015</t>
+          <t>30/11/2022</t>
         </is>
       </c>
       <c r="V51" t="n">
@@ -8210,17 +8218,17 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>SAO PAULO</t>
+          <t>JOÃO PAULINO VIEIRA FILHO</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>190</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>SALA  1014</t>
+          <t>Nao informado</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -8230,7 +8238,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>87013040</t>
+          <t>87020015</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
@@ -8247,7 +8255,7 @@
       <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>CONTATOCONTABIL@PASTORELLI.CNT.BR</t>
+          <t>SOLA@ECOBRASCONTABILIDADE.COM.BR</t>
         </is>
       </c>
     </row>
@@ -8262,7 +8270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8320,7 +8328,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24699192</t>
+          <t>34215594</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -8330,22 +8338,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATHANE DE SA DOS SANTOS</t>
+          <t>RONALDO BALEEIRO VIOTTO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>***167958**</t>
+          <t>***477459**</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sócio-Administrador</t>
+          <t>Sócio</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12/02/2023</t>
+          <t>28/07/2022</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -8363,7 +8371,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>16653244</t>
+          <t>34215594</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -8373,12 +8381,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FABIANA LEIKO MIKUNI DE FREITAS</t>
+          <t>STEFANIE CAMILA DE OLIVEIRA MALTA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>***979549**</t>
+          <t>***612599**</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -8388,7 +8396,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>27/07/2021</t>
+          <t>28/07/2022</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -8406,7 +8414,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15126007</t>
+          <t>32803268</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -8416,22 +8424,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ELEZIER FREITAS DE CASTRO</t>
+          <t>ABEL RODRIGUES</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>***013109**</t>
+          <t>***122309**</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sócio-Administrador</t>
+          <t>Sócio</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>24/07/2012</t>
+          <t>18/02/2019</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -8449,7 +8457,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>43868178</t>
+          <t>38143484</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -8459,12 +8467,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RENATO ALEXANDRO DE ANDRADE JUNIOR</t>
+          <t>ISABELA LAHUTT ANTONIO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>***376929**</t>
+          <t>***399809**</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -8474,7 +8482,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>14/10/2021</t>
+          <t>19/08/2020</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -8492,7 +8500,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>43868178</t>
+          <t>24680078</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -8502,12 +8510,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LUCAS FERNANDO FRANZIN</t>
+          <t>ALINE DE ARRUDA GARCIA DOS SANTOS</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>***870719**</t>
+          <t>***602509**</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -8517,7 +8525,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>14/10/2021</t>
+          <t>28/04/2016</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -8535,7 +8543,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>43868178</t>
+          <t>24680078</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -8545,12 +8553,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FELIPE GERALDI</t>
+          <t>VERA LUCIA DE ARRUDA GARCIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>***628749**</t>
+          <t>***726549**</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -8560,7 +8568,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14/10/2021</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -8578,7 +8586,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>45945267</t>
+          <t>27858361</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -8588,12 +8596,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>JEISIELE GONCALVES DE OLIVEIRA CARVALHO</t>
+          <t>VAGNER JOAQUIM FERREIRA DA SILVA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>***656699**</t>
+          <t>***437310**</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -8603,7 +8611,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>07/04/2022</t>
+          <t>05/06/2020</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -8621,7 +8629,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>45945267</t>
+          <t>32803268</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -8631,22 +8639,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>JEISILA CRISTIAN GONCALVES DE OLIVEIRA</t>
+          <t>GENIVALDO RIBEIRO DA SILVA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>***555879**</t>
+          <t>***164351**</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sócio-Administrador</t>
+          <t>Sócio</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>07/04/2022</t>
+          <t>18/02/2019</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -8664,7 +8672,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>45945267</t>
+          <t>32803268</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -8674,12 +8682,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NILZA DE FATIMA DE OLIVEIRA</t>
+          <t>FABRICIA BRASILINO DE SOUZA RODRIGUES</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>***086529**</t>
+          <t>***576729**</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -8689,7 +8697,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>07/04/2022</t>
+          <t>18/02/2019</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -8707,7 +8715,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>34215594</t>
+          <t>26882648</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -8717,12 +8725,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RONALDO BALEEIRO VIOTTO</t>
+          <t>ALEXANDRE LEONARDO DE LIMA COUTINHO</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>***477459**</t>
+          <t>***685609**</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -8732,7 +8740,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>28/07/2022</t>
+          <t>17/01/2017</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -8750,7 +8758,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>34215594</t>
+          <t>48764663</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -8760,12 +8768,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>STEFANIE CAMILA DE OLIVEIRA MALTA</t>
+          <t>VILSON GUERRA DOS SANTOS</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>***612599**</t>
+          <t>***156589**</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -8775,7 +8783,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>28/07/2022</t>
+          <t>30/11/2022</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -8793,7 +8801,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>42700263</t>
+          <t>49649660</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -8803,12 +8811,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FLAVIA LOPES DE POLLI BENITES</t>
+          <t>RENATO BOSCARDIM SOARES</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>***242959**</t>
+          <t>***734389**</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -8818,7 +8826,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>13/07/2021</t>
+          <t>17/02/2023</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -8836,7 +8844,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>15126007</t>
+          <t>26882648</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -8846,22 +8854,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LUZIA HERRERA DE CASTRO</t>
+          <t>ALESSANDRO DE OLIVEIRA ROMAN</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>***513199**</t>
+          <t>***056199**</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sócio</t>
+          <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>24/07/2012</t>
+          <t>24/08/2018</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -8879,7 +8887,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>23328656</t>
+          <t>43157853</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -8889,12 +8897,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GABRIELA PAISCA DA SILVA</t>
+          <t>JOICE LOANA OLIANO DOS SANTOS</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>***656769**</t>
+          <t>***201729**</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -8904,7 +8912,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>23/09/2015</t>
+          <t>17/08/2021</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -8922,7 +8930,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>23328656</t>
+          <t>46507326</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -8932,22 +8940,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DANIELA PAISCA MAGALHAES DA SILVA</t>
+          <t>VANESSA VERAS VIEIRA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>***916339**</t>
+          <t>***195078**</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sócio</t>
+          <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>23/09/2015</t>
+          <t>23/05/2022</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -8965,7 +8973,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>24680078</t>
+          <t>29461363</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -8975,12 +8983,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ALINE DE ARRUDA GARCIA DOS SANTOS</t>
+          <t>RAISSA BENTO SANTOS</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>***602509**</t>
+          <t>***071344**</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -8990,7 +8998,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>28/04/2016</t>
+          <t>12/05/2023</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -9008,7 +9016,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>24680078</t>
+          <t>46507326</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -9018,12 +9026,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>VERA LUCIA DE ARRUDA GARCIA</t>
+          <t>MARCOS VINICIUS NERONI FERNANDES</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>***726549**</t>
+          <t>***528291**</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -9033,7 +9041,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>23/01/2017</t>
+          <t>23/05/2022</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -9051,7 +9059,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>27858361</t>
+          <t>13428716</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -9061,12 +9069,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>VAGNER JOAQUIM FERREIRA DA SILVA</t>
+          <t>LAIS RUSSO PAINA FREITAS</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>***437310**</t>
+          <t>***779199**</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -9076,7 +9084,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>05/06/2020</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -9094,7 +9102,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>48764663</t>
+          <t>12300492</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -9104,12 +9112,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>VILSON GUERRA DOS SANTOS</t>
+          <t>LUCIANA GROSSMANN</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>***156589**</t>
+          <t>***977139**</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -9119,7 +9127,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>30/11/2022</t>
+          <t>30/07/2018</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -9137,7 +9145,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30468613</t>
+          <t>12300492</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -9147,12 +9155,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PATRICIA MICHELE SOARES DANTE</t>
+          <t>TIAGO FOGACA CRESPO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>***646802**</t>
+          <t>***858739**</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -9162,7 +9170,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>09/11/2021</t>
+          <t>30/07/2018</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -9180,7 +9188,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>29708529</t>
+          <t>13428716</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -9190,22 +9198,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DOUGLAS ALVES PEREIRA</t>
+          <t>SIDERLEY FREITAS DE CASTRO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>***907049**</t>
+          <t>***142339**</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sócio-Administrador</t>
+          <t>Sócio</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>09/02/2021</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -9223,7 +9231,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>25330272</t>
+          <t>22790958</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -9233,12 +9241,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>WAGNER ALBERTO PAES BARRETO</t>
+          <t>MATHEUS ADAMUCCIO GOMES</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>***496334**</t>
+          <t>***410699**</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -9248,7 +9256,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>04/08/2022</t>
+          <t>13/04/2022</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -9266,7 +9274,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>11222870</t>
+          <t>19427911</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -9276,12 +9284,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ISABEL ROSA</t>
+          <t>CELIA REGINA MARINHO COSMO DE SOUSA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>***651559**</t>
+          <t>***087358**</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -9291,7 +9299,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>01/10/2009</t>
+          <t>05/12/2013</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -9309,7 +9317,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>43157853</t>
+          <t>19427911</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -9319,12 +9327,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>JOICE LOANA OLIANO DOS SANTOS</t>
+          <t>SIMONE DA LUZ BARBOSA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>***201729**</t>
+          <t>***009371**</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -9334,7 +9342,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>17/08/2021</t>
+          <t>05/12/2013</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -9352,7 +9360,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>11222870</t>
+          <t>27281947</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -9362,22 +9370,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ISABELA ROSA BORBOREMA BARROS DE CARVALHO</t>
+          <t>EDNALDO CARLOS ROZAO</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>***904359**</t>
+          <t>***515849**</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sócio</t>
+          <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>01/10/2009</t>
+          <t>13/12/2018</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -9395,7 +9403,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>12300492</t>
+          <t>51219125</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -9405,12 +9413,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LUCIANA GROSSMANN</t>
+          <t>CALEBE MARIANO DUARTE</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>***977139**</t>
+          <t>***082148**</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -9420,7 +9428,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>30/07/2018</t>
+          <t>28/06/2023</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -9438,7 +9446,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>12300492</t>
+          <t>11075159</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -9448,12 +9456,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TIAGO FOGACA CRESPO</t>
+          <t>MARIA HELENA SANTOS</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>***858739**</t>
+          <t>***952959**</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -9463,7 +9471,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>30/07/2018</t>
+          <t>02/10/2017</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -9481,7 +9489,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>32551718</t>
+          <t>11075159</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -9491,22 +9499,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ROGERIO NOBORO HIGUCHI</t>
+          <t>ALEXANDRE DE LIMA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>***909129**</t>
+          <t>***791439**</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sócio</t>
+          <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>24/01/2019</t>
+          <t>02/10/2017</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -9524,7 +9532,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>17274626</t>
+          <t>31889052</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -9534,12 +9542,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ELIANE LIRA DE SOUZA GONCALVES</t>
+          <t>LEANDRO BRAIDO MACRI</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>***273239**</t>
+          <t>***795239**</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -9549,7 +9557,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>04/12/2012</t>
+          <t>29/10/2018</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -9577,22 +9585,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>LEANDRO BRAIDO MACRI</t>
+          <t>VINICIUS SOARES VELOSO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>***795239**</t>
+          <t>***604259**</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sócio-Administrador</t>
+          <t>Sócio</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>29/10/2018</t>
+          <t>29/03/2023</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -9610,7 +9618,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>31889052</t>
+          <t>29937394</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -9620,22 +9628,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>VINICIUS SOARES VELOSO</t>
+          <t>VINICIUS MENARIM HUMAMOTO</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>***604259**</t>
+          <t>***649229**</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sócio</t>
+          <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>29/03/2023</t>
+          <t>14/03/2018</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -9653,7 +9661,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>32551718</t>
+          <t>27281947</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -9663,12 +9671,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ANA CLAUDIA SOUZA BALANI DA SILVA</t>
+          <t>ROSIMEIRE COLOGNESE DOS SANTOS ROZAO</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>***289539**</t>
+          <t>***885459**</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -9678,7 +9686,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>24/01/2019</t>
+          <t>13/12/2018</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -9696,7 +9704,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>32551718</t>
+          <t>48922076</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -9706,12 +9714,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ANA PAULA SOUZA DA SILVA</t>
+          <t>HELIO MARQUES DA SILVA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>***218129**</t>
+          <t>***309019**</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -9721,7 +9729,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>24/01/2019</t>
+          <t>19/12/2022</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -9739,7 +9747,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>46513010</t>
+          <t>45941711</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -9749,12 +9757,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DALVA DE OLIVEIRA BABETTO MENDES</t>
+          <t>NILZA VALERIA DE ALMEIDA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>***044869**</t>
+          <t>***217638**</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -9764,7 +9772,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>24/05/2022</t>
+          <t>07/04/2022</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -9782,7 +9790,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>40817253</t>
+          <t>31099375</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -9792,12 +9800,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>LETYCIA RODRIGUES CZEZACKI</t>
+          <t>DAIANE ALVES ESTEVAO VIEIRA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>***263519**</t>
+          <t>***561269**</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -9807,7 +9815,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>11/02/2021</t>
+          <t>19/01/2022</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -9825,7 +9833,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>29937394</t>
+          <t>48922076</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -9835,12 +9843,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>VINICIUS MENARIM HUMAMOTO</t>
+          <t>JAQUELINE RUUS DE SOUZA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>***649229**</t>
+          <t>***741079**</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -9850,7 +9858,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>14/03/2018</t>
+          <t>19/12/2022</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -9868,7 +9876,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>44023400</t>
+          <t>48922076</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -9878,12 +9886,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>FABRICIA BRASILINO DE SOUZA RODRIGUES</t>
+          <t>JAQUELINE MARIA GENERAL MARQUES KLOSOSKI</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>***576729**</t>
+          <t>***523809**</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -9893,7 +9901,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>26/10/2021</t>
+          <t>19/12/2022</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -9911,7 +9919,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>44023400</t>
+          <t>24398383</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -9921,12 +9929,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>LETICIA BRASILINO DE SOUZA</t>
+          <t>GLAUBER SIQUEIRA MAGALHAES</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>***915139**</t>
+          <t>***360979**</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -9936,7 +9944,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>26/10/2021</t>
+          <t>09/02/2023</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9954,7 +9962,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>46513010</t>
+          <t>21872180</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -9964,22 +9972,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>JOEL MENDES</t>
+          <t>MARCOS ANTONIO DA SILVA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>***770148**</t>
+          <t>***896119**</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sócio</t>
+          <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>24/05/2022</t>
+          <t>10/02/2015</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -9997,7 +10005,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>46513010</t>
+          <t>31611871</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -10007,12 +10015,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RAFAEL HENRIQUE FERREIRA</t>
+          <t>GUILHERME DA SILVA BRISCE</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>***394489**</t>
+          <t>***451599**</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -10022,7 +10030,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>24/05/2022</t>
+          <t>07/05/2021</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -10040,7 +10048,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>27281947</t>
+          <t>19674954</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -10050,12 +10058,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>EDNALDO CARLOS ROZAO</t>
+          <t>JOSI ADRIANA DE SOUZA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>***515849**</t>
+          <t>***576299**</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -10065,7 +10073,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>13/12/2018</t>
+          <t>31/01/2014</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -10083,7 +10091,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>47585067</t>
+          <t>26080590</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -10093,12 +10101,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>JONAS DE JESUS SEGES</t>
+          <t>RONUALDO ALVES</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>***965678**</t>
+          <t>***287999**</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -10108,7 +10116,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>16/08/2022</t>
+          <t>12/07/2021</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -10126,7 +10134,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>47585067</t>
+          <t>26080590</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -10136,22 +10144,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HELENA APARECIDA BONILHA DE ANDRADE SEGES</t>
+          <t>MATEUS RIBEIRO ALVES</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>***476209**</t>
+          <t>***222109**</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sócio</t>
+          <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>16/08/2022</t>
+          <t>19/05/2023</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -10169,7 +10177,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>27281947</t>
+          <t>45746118</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -10179,12 +10187,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ROSIMEIRE COLOGNESE DOS SANTOS ROZAO</t>
+          <t>MATEUS UBIALI CINTRA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>***885459**</t>
+          <t>***460429**</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -10194,7 +10202,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>13/12/2018</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -10212,7 +10220,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>29615441</t>
+          <t>23220329</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -10222,12 +10230,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GUSTAVO LOPES DA SILVA</t>
+          <t>BARBARA GANEM FRAGUAS</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>***633868**</t>
+          <t>***857349**</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -10237,7 +10245,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>10/02/2022</t>
+          <t>04/09/2015</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -10255,7 +10263,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>47637067</t>
+          <t>23220329</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -10265,22 +10273,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GLERISON RHAYD GALLI TOMAZI</t>
+          <t>JOAO ROBERTO FRAGUAS</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>***705189**</t>
+          <t>***300119**</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sócio-Administrador</t>
+          <t>Sócio</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>19/08/2022</t>
+          <t>18/06/2018</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -10298,7 +10306,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>30554913</t>
+          <t>24634029</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -10308,12 +10316,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ERICA PEREIRA ROSA</t>
+          <t>JEFFERSON CARLOS DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>***598869**</t>
+          <t>***131939**</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -10323,7 +10331,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>17/05/2022</t>
+          <t>24/03/2021</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -10341,7 +10349,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>45941711</t>
+          <t>33871082</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -10351,12 +10359,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NILZA VALERIA DE ALMEIDA</t>
+          <t>ABYLA FERNANDA CREMONEIS TOMAZ</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>***217638**</t>
+          <t>***658419**</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -10366,7 +10374,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>07/04/2022</t>
+          <t>03/02/2023</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -10384,7 +10392,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>30709796</t>
+          <t>45746118</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -10394,22 +10402,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>WILLIANS PEREIRA DA SILVA</t>
+          <t>FELIPE MUNIZ DA SILVA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>***851769**</t>
+          <t>***451299**</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sócio-Administrador</t>
+          <t>Sócio</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>15/06/2018</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -10427,7 +10435,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>31537425</t>
+          <t>47618875</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10437,12 +10445,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>JOAO PEDRO CARREGOSA ANDRADE COSTA</t>
+          <t>YASMIN FERRACINI FOUTO</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>***599239**</t>
+          <t>***127279**</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -10452,7 +10460,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>08/06/2022</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -10470,7 +10478,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>12766678</t>
+          <t>18433597</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10480,22 +10488,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>LUCIA ROSA</t>
+          <t>ALINE SILVA GOMES VIEIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>***783909**</t>
+          <t>***173169**</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sócio</t>
+          <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>04/05/2023</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -10513,7 +10521,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>12766678</t>
+          <t>26835569</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10523,12 +10531,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ISABEL ROSA</t>
+          <t>FABIO VELUCINO DE MATTOS SCOPEL</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>***651559**</t>
+          <t>***022649**</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -10538,7 +10546,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>28/04/2021</t>
+          <t>10/01/2017</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -10556,7 +10564,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>45442512</t>
+          <t>17710705</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -10566,12 +10574,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SANDRA MASSON UTINOI</t>
+          <t>JULIO CESAR MARTINS RODRIGUES</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>***247979**</t>
+          <t>***120869**</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -10581,7 +10589,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>24/02/2022</t>
+          <t>24/07/2020</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -10599,7 +10607,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>45442512</t>
+          <t>20782664</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -10609,22 +10617,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ENZO MASSON PORTES DA FONSECA</t>
+          <t>JUSSARA FORQUIM DO NASCIMENTO</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>***534229**</t>
+          <t>***544489**</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sócio Menor (Assistido/Representado)</t>
+          <t>Sócio-Administrador</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>24/02/2022</t>
+          <t>06/02/2023</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -10634,19 +10642,15 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>***247979**</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>SANDRA MASSON UTINOI</t>
-        </is>
-      </c>
+          <t>***000000**</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>17710705</t>
+          <t>26835569</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -10656,12 +10660,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>JULIO CESAR MARTINS RODRIGUES</t>
+          <t>ELAINE APARECIDA DE MATTOS</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>***120869**</t>
+          <t>***989689**</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -10671,7 +10675,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>24/07/2020</t>
+          <t>10/01/2017</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -10689,7 +10693,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>50981680</t>
+          <t>43735529</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -10699,12 +10703,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NICOLY THOME FREIRIA</t>
+          <t>VALERIA SICHIERI GUILHEN</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>***097889**</t>
+          <t>***069539**</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -10714,7 +10718,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10732,7 +10736,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>24398383</t>
+          <t>31537425</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -10742,12 +10746,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>GLAUBER SIQUEIRA MAGALHAES</t>
+          <t>JOAO PEDRO CARREGOSA ANDRADE COSTA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>***360979**</t>
+          <t>***599239**</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -10757,7 +10761,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>09/02/2023</t>
+          <t>08/06/2022</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -10775,7 +10779,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>33734968</t>
+          <t>43735529</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -10785,12 +10789,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MATHEUS HENRIQUE TERRA DE OLIVEIRA</t>
+          <t>JULIANO SICHIERI GUILHEN</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>***841899**</t>
+          <t>***749479**</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -10800,7 +10804,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>02/03/2020</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10818,7 +10822,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>31611871</t>
+          <t>11532289</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -10828,12 +10832,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>GUILHERME DA SILVA BRISCE</t>
+          <t>JACKSON RODRIGO DE MATTOS</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>***451599**</t>
+          <t>***625869**</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -10843,7 +10847,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>07/05/2021</t>
+          <t>01/07/2011</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10861,7 +10865,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>47618875</t>
+          <t>32348958</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -10871,12 +10875,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>YASMIN FERRACINI FOUTO</t>
+          <t>ANDREIA APARECIDA DE SOUZA CUSTODIO SANTANA DA SILVA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>***127279**</t>
+          <t>***459039**</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -10886,7 +10890,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>26/01/2022</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -10904,7 +10908,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20109887</t>
+          <t>05963281</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -10914,12 +10918,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ROSE APARECIDA COSTA BOCARDI</t>
+          <t>ALEX DANIEL SOARES SANT ANA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>***748939**</t>
+          <t>***527479**</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -10929,7 +10933,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>11/04/2014</t>
+          <t>04/11/2003</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -10947,7 +10951,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20109887</t>
+          <t>05963281</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -10957,12 +10961,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CLAUDETE LUCIANA MARQUES PAVANI</t>
+          <t>JEAN RICARDO SOARES SANT ANA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>***927109**</t>
+          <t>***191299**</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -10972,7 +10976,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>11/04/2014</t>
+          <t>04/11/2003</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -10990,7 +10994,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20109887</t>
+          <t>13081582</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -11000,12 +11004,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ELIANE CACIA DE SOUZA LIMA</t>
+          <t>EVELIN CASTALDELLI SILVA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>***568619**</t>
+          <t>***393989**</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -11015,7 +11019,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>11/04/2014</t>
+          <t>15/01/2015</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -11033,7 +11037,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>30809468</t>
+          <t>30040657</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -11043,12 +11047,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ELISSANDRA DA SILVA</t>
+          <t>REGINALDO SOCORRO SANTOS</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>***270199**</t>
+          <t>***161629**</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -11058,7 +11062,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>28/06/2018</t>
+          <t>14/06/2021</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -11076,7 +11080,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>22374317</t>
+          <t>23626802</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -11086,12 +11090,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MAYKO ZIMMERMANN</t>
+          <t>LARISSA MAYARA MISSAO</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>***045369**</t>
+          <t>***247398**</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -11101,7 +11105,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>12/02/2021</t>
+          <t>15/10/2021</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -11119,7 +11123,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>43735529</t>
+          <t>48253775</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -11129,12 +11133,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>VALERIA SICHIERI GUILHEN</t>
+          <t>SILVIA MARA ALVES</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>***069539**</t>
+          <t>***486821**</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -11144,7 +11148,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>11/10/2022</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -11162,7 +11166,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>43735529</t>
+          <t>42888355</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -11172,12 +11176,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>JULIANO SICHIERI GUILHEN</t>
+          <t>TAMARA DE NARDO VANZELA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>***749479**</t>
+          <t>***778989**</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -11187,7 +11191,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>27/07/2021</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -11205,7 +11209,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>32348958</t>
+          <t>50444263</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -11215,12 +11219,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ANDREIA APARECIDA DE SOUZA CUSTODIO SANTANA DA SILVA</t>
+          <t>FABIANA SOUZA CONTE</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>***459039**</t>
+          <t>***763989**</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -11230,7 +11234,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>26/01/2022</t>
+          <t>25/04/2023</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -11248,7 +11252,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>50444263</t>
+          <t>44762237</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -11258,12 +11262,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>FABIANA SOUZA CONTE</t>
+          <t>JOYCE RODRIGUES PEREIRA DOS REIS</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>***763989**</t>
+          <t>***061368**</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -11273,7 +11277,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>25/04/2023</t>
+          <t>06/01/2022</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -11291,7 +11295,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>29353438</t>
+          <t>46063613</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -11301,12 +11305,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PAOLA CRISTINA FRANCOLIN</t>
+          <t>FELIPE VIVEROS</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>***294779**</t>
+          <t>***951249**</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -11316,7 +11320,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>24/06/2020</t>
+          <t>18/04/2022</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -11330,307 +11334,6 @@
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>48253775</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>PESSOA FISICA</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>SILVIA MARA ALVES</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>***486821**</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Sócio-Administrador</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>11/10/2022</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>NAO DECLARADOS</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>***000000**</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>23626802</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>PESSOA FISICA</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>LARISSA MAYARA MISSAO</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>***247398**</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Sócio-Administrador</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>15/10/2021</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>NAO DECLARADOS</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>***000000**</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>35393898</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>PESSOA FISICA</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>THIAGO CALIXTO OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>***254578**</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Sócio-Administrador</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>04/11/2019</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>NAO DECLARADOS</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>***000000**</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>35393898</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>PESSOA FISICA</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>WILLIAM LOPES DE MACEDO</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>***980808**</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Sócio-Administrador</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>04/11/2019</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>NAO DECLARADOS</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>***000000**</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>35393898</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>PESSOA FISICA</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>FELIPE DE FREITAS MEDEIROS</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>***140789**</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Sócio-Administrador</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>04/11/2019</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>NAO DECLARADOS</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>***000000**</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>35393898</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>PESSOA FISICA</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>GENILTON DA SILVA RODRIGUES</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>***538269**</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Sócio-Administrador</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>04/11/2019</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>NAO DECLARADOS</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>***000000**</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>35393898</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>PESSOA FISICA</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>IVAN DEZOTI JUNIOR</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>***666069**</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Sócio-Administrador</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>04/11/2019</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>NAO DECLARADOS</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>***000000**</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
